--- a/Document/My Ais/T9_IOS/Test/T9_Test_MyAIS_APP_IOS_3BE_TH.xlsx
+++ b/Document/My Ais/T9_IOS/Test/T9_Test_MyAIS_APP_IOS_3BE_TH.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RobotFramework\Document\My Ais\T9_IOS\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PamNi\Work\2016\Automate\MyAIS\T9 IOS\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1095" windowWidth="20115" windowHeight="6975" tabRatio="879" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="1095" windowWidth="20115" windowHeight="6975" tabRatio="879"/>
   </bookViews>
   <sheets>
     <sheet name="My Account " sheetId="27" r:id="rId1"/>
@@ -31,7 +31,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">เติมเงิน!$A$1:$J$53</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -23604,7 +23604,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -23806,12 +23806,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF99CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -24491,7 +24485,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="705">
+  <cellXfs count="701">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -25962,65 +25956,8 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="5" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="9" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="16" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="5" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="9" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="14" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
@@ -26062,11 +25999,85 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
@@ -26149,22 +26160,6 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -26177,118 +26172,24 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -26302,11 +26203,29 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -26335,25 +26254,58 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -26365,49 +26317,40 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="82" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="82" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="20" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="52" fillId="20" borderId="43" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="40" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="54" fillId="21" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="47" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="44" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="62" fillId="23" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="54" fillId="21" borderId="38" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="45" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="46" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="52" fillId="20" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="20" borderId="43" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="54" fillId="22" borderId="38" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="47" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="52" fillId="20" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="40" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="52" fillId="20" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="21" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="23" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="20" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="72" fillId="20" borderId="43" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -26427,12 +26370,49 @@
     <xf numFmtId="0" fontId="72" fillId="20" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="14" borderId="5" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="14" borderId="0" xfId="9" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="14" borderId="14" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -29698,28 +29678,28 @@
   </sheetPr>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.875" style="577" customWidth="1"/>
-    <col min="2" max="2" width="35.5" style="577" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="577" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.125" style="577" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="577" customWidth="1"/>
-    <col min="6" max="6" width="16.125" style="577" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="577" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.125" style="577" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.375" style="577" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.25" style="577" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.375" style="577" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.125" style="577" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="14.125" style="577"/>
+    <col min="1" max="1" width="24.875" style="558" customWidth="1"/>
+    <col min="2" max="2" width="35.5" style="558" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="558" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.125" style="558" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="558" customWidth="1"/>
+    <col min="6" max="6" width="16.125" style="558" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="558" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="558" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.375" style="558" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.25" style="558" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.375" style="558" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.125" style="558" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="14.125" style="558"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="545" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="545" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="541" t="s">
         <v>56</v>
       </c>
@@ -29754,7 +29734,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="549" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="549" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="546" t="s">
         <v>241</v>
       </c>
@@ -29769,238 +29749,238 @@
       <c r="J2" s="548"/>
       <c r="K2" s="548"/>
     </row>
-    <row r="3" spans="1:11" s="556" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="550" t="s">
+    <row r="3" spans="1:11" s="692" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="686" t="s">
         <v>1515</v>
       </c>
-      <c r="B3" s="551" t="s">
+      <c r="B3" s="687" t="s">
         <v>243</v>
       </c>
-      <c r="C3" s="552" t="s">
+      <c r="C3" s="688" t="s">
         <v>2152</v>
       </c>
-      <c r="D3" s="553" t="s">
+      <c r="D3" s="689" t="s">
         <v>2176</v>
       </c>
-      <c r="E3" s="554"/>
-      <c r="F3" s="554"/>
-      <c r="G3" s="554"/>
-      <c r="H3" s="554"/>
-      <c r="I3" s="554"/>
-      <c r="J3" s="554"/>
-      <c r="K3" s="555"/>
-    </row>
-    <row r="4" spans="1:11" s="556" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="550" t="s">
+      <c r="E3" s="690"/>
+      <c r="F3" s="690"/>
+      <c r="G3" s="690"/>
+      <c r="H3" s="690"/>
+      <c r="I3" s="690"/>
+      <c r="J3" s="690"/>
+      <c r="K3" s="691"/>
+    </row>
+    <row r="4" spans="1:11" s="692" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="686" t="s">
         <v>1516</v>
       </c>
-      <c r="B4" s="551" t="s">
+      <c r="B4" s="687" t="s">
         <v>244</v>
       </c>
-      <c r="C4" s="552" t="s">
+      <c r="C4" s="688" t="s">
         <v>2152</v>
       </c>
-      <c r="D4" s="553" t="s">
+      <c r="D4" s="689" t="s">
         <v>2177</v>
       </c>
-      <c r="E4" s="554"/>
-      <c r="F4" s="554"/>
-      <c r="G4" s="554"/>
-      <c r="H4" s="554"/>
-      <c r="I4" s="554"/>
-      <c r="J4" s="554"/>
-      <c r="K4" s="555"/>
-    </row>
-    <row r="5" spans="1:11" s="556" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="550" t="s">
+      <c r="E4" s="690"/>
+      <c r="F4" s="690"/>
+      <c r="G4" s="690"/>
+      <c r="H4" s="690"/>
+      <c r="I4" s="690"/>
+      <c r="J4" s="690"/>
+      <c r="K4" s="691"/>
+    </row>
+    <row r="5" spans="1:11" s="692" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="686" t="s">
         <v>1517</v>
       </c>
-      <c r="B5" s="551" t="s">
+      <c r="B5" s="687" t="s">
         <v>2178</v>
       </c>
-      <c r="C5" s="552" t="s">
+      <c r="C5" s="688" t="s">
         <v>2152</v>
       </c>
-      <c r="D5" s="553" t="s">
+      <c r="D5" s="689" t="s">
         <v>2179</v>
       </c>
-      <c r="E5" s="554"/>
-      <c r="F5" s="554"/>
-      <c r="G5" s="554"/>
-      <c r="H5" s="554"/>
-      <c r="I5" s="554"/>
-      <c r="J5" s="554"/>
-      <c r="K5" s="555"/>
-    </row>
-    <row r="6" spans="1:11" s="556" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="550" t="s">
+      <c r="E5" s="690"/>
+      <c r="F5" s="690"/>
+      <c r="G5" s="690"/>
+      <c r="H5" s="690"/>
+      <c r="I5" s="690"/>
+      <c r="J5" s="690"/>
+      <c r="K5" s="691"/>
+    </row>
+    <row r="6" spans="1:11" s="692" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="686" t="s">
         <v>1518</v>
       </c>
-      <c r="B6" s="557" t="s">
+      <c r="B6" s="687" t="s">
         <v>2180</v>
       </c>
-      <c r="C6" s="552" t="s">
+      <c r="C6" s="688" t="s">
         <v>2152</v>
       </c>
-      <c r="D6" s="553" t="s">
+      <c r="D6" s="689" t="s">
         <v>2181</v>
       </c>
-      <c r="E6" s="554"/>
-      <c r="F6" s="554"/>
-      <c r="G6" s="554"/>
-      <c r="H6" s="554"/>
-      <c r="I6" s="554"/>
-      <c r="J6" s="554"/>
-      <c r="K6" s="555"/>
-    </row>
-    <row r="7" spans="1:11" s="556" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="550" t="s">
+      <c r="E6" s="690"/>
+      <c r="F6" s="690"/>
+      <c r="G6" s="690"/>
+      <c r="H6" s="690"/>
+      <c r="I6" s="690"/>
+      <c r="J6" s="690"/>
+      <c r="K6" s="691"/>
+    </row>
+    <row r="7" spans="1:11" s="692" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="686" t="s">
         <v>1519</v>
       </c>
-      <c r="B7" s="557" t="s">
+      <c r="B7" s="687" t="s">
         <v>245</v>
       </c>
-      <c r="C7" s="552" t="s">
+      <c r="C7" s="688" t="s">
         <v>2152</v>
       </c>
-      <c r="D7" s="553" t="s">
+      <c r="D7" s="689" t="s">
         <v>2182</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="554"/>
-      <c r="I7" s="554"/>
-      <c r="J7" s="554"/>
-      <c r="K7" s="555"/>
-    </row>
-    <row r="8" spans="1:11" s="556" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="550" t="s">
+      <c r="E7" s="690"/>
+      <c r="F7" s="690"/>
+      <c r="G7" s="690"/>
+      <c r="H7" s="690"/>
+      <c r="I7" s="690"/>
+      <c r="J7" s="690"/>
+      <c r="K7" s="691"/>
+    </row>
+    <row r="8" spans="1:11" s="692" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="686" t="s">
         <v>1520</v>
       </c>
-      <c r="B8" s="557" t="s">
+      <c r="B8" s="687" t="s">
         <v>246</v>
       </c>
-      <c r="C8" s="552" t="s">
+      <c r="C8" s="688" t="s">
         <v>2152</v>
       </c>
-      <c r="D8" s="553" t="s">
+      <c r="D8" s="689" t="s">
         <v>2183</v>
       </c>
-      <c r="E8" s="554"/>
-      <c r="F8" s="554"/>
-      <c r="G8" s="554"/>
-      <c r="H8" s="554"/>
-      <c r="I8" s="554"/>
-      <c r="J8" s="554"/>
-      <c r="K8" s="555"/>
-    </row>
-    <row r="9" spans="1:11" s="556" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="550" t="s">
+      <c r="E8" s="690"/>
+      <c r="F8" s="690"/>
+      <c r="G8" s="690"/>
+      <c r="H8" s="690"/>
+      <c r="I8" s="690"/>
+      <c r="J8" s="690"/>
+      <c r="K8" s="691"/>
+    </row>
+    <row r="9" spans="1:11" s="692" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="686" t="s">
         <v>1521</v>
       </c>
-      <c r="B9" s="557" t="s">
+      <c r="B9" s="687" t="s">
         <v>247</v>
       </c>
-      <c r="C9" s="552" t="s">
+      <c r="C9" s="688" t="s">
         <v>2152</v>
       </c>
-      <c r="D9" s="553" t="s">
+      <c r="D9" s="689" t="s">
         <v>2184</v>
       </c>
-      <c r="E9" s="554"/>
-      <c r="F9" s="554"/>
-      <c r="G9" s="554"/>
-      <c r="H9" s="554"/>
-      <c r="I9" s="554"/>
-      <c r="J9" s="554"/>
-      <c r="K9" s="555"/>
-    </row>
-    <row r="10" spans="1:11" s="556" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="550" t="s">
+      <c r="E9" s="690"/>
+      <c r="F9" s="690"/>
+      <c r="G9" s="690"/>
+      <c r="H9" s="690"/>
+      <c r="I9" s="690"/>
+      <c r="J9" s="690"/>
+      <c r="K9" s="691"/>
+    </row>
+    <row r="10" spans="1:11" s="692" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="686" t="s">
         <v>1522</v>
       </c>
-      <c r="B10" s="557" t="s">
+      <c r="B10" s="687" t="s">
         <v>248</v>
       </c>
-      <c r="C10" s="552" t="s">
+      <c r="C10" s="688" t="s">
         <v>2152</v>
       </c>
-      <c r="D10" s="553" t="s">
+      <c r="D10" s="689" t="s">
         <v>2185</v>
       </c>
-      <c r="E10" s="554"/>
-      <c r="F10" s="554"/>
-      <c r="G10" s="554"/>
-      <c r="H10" s="554"/>
-      <c r="I10" s="554"/>
-      <c r="J10" s="554"/>
-      <c r="K10" s="555"/>
-    </row>
-    <row r="11" spans="1:11" s="556" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="550" t="s">
+      <c r="E10" s="690"/>
+      <c r="F10" s="690"/>
+      <c r="G10" s="690"/>
+      <c r="H10" s="690"/>
+      <c r="I10" s="690"/>
+      <c r="J10" s="690"/>
+      <c r="K10" s="691"/>
+    </row>
+    <row r="11" spans="1:11" s="692" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="686" t="s">
         <v>1523</v>
       </c>
-      <c r="B11" s="557" t="s">
+      <c r="B11" s="687" t="s">
         <v>249</v>
       </c>
-      <c r="C11" s="552" t="s">
+      <c r="C11" s="688" t="s">
         <v>2152</v>
       </c>
-      <c r="D11" s="553" t="s">
+      <c r="D11" s="689" t="s">
         <v>2186</v>
       </c>
-      <c r="E11" s="554"/>
-      <c r="F11" s="554"/>
-      <c r="G11" s="554"/>
-      <c r="H11" s="554"/>
-      <c r="I11" s="554"/>
-      <c r="J11" s="554"/>
-      <c r="K11" s="555"/>
-    </row>
-    <row r="12" spans="1:11" s="556" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="550" t="s">
+      <c r="E11" s="690"/>
+      <c r="F11" s="690"/>
+      <c r="G11" s="690"/>
+      <c r="H11" s="690"/>
+      <c r="I11" s="690"/>
+      <c r="J11" s="690"/>
+      <c r="K11" s="691"/>
+    </row>
+    <row r="12" spans="1:11" s="692" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="686" t="s">
         <v>1524</v>
       </c>
-      <c r="B12" s="557" t="s">
+      <c r="B12" s="687" t="s">
         <v>250</v>
       </c>
-      <c r="C12" s="552" t="s">
+      <c r="C12" s="688" t="s">
         <v>2152</v>
       </c>
-      <c r="D12" s="553" t="s">
+      <c r="D12" s="689" t="s">
         <v>2187</v>
       </c>
-      <c r="E12" s="554"/>
-      <c r="F12" s="554"/>
-      <c r="G12" s="554"/>
-      <c r="H12" s="554"/>
-      <c r="I12" s="554"/>
-      <c r="J12" s="554"/>
-      <c r="K12" s="555"/>
-    </row>
-    <row r="13" spans="1:11" s="556" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="550" t="s">
+      <c r="E12" s="690"/>
+      <c r="F12" s="690"/>
+      <c r="G12" s="690"/>
+      <c r="H12" s="690"/>
+      <c r="I12" s="690"/>
+      <c r="J12" s="690"/>
+      <c r="K12" s="691"/>
+    </row>
+    <row r="13" spans="1:11" s="692" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="686" t="s">
         <v>2231</v>
       </c>
-      <c r="B13" s="557" t="s">
+      <c r="B13" s="687" t="s">
         <v>251</v>
       </c>
-      <c r="C13" s="552" t="s">
+      <c r="C13" s="688" t="s">
         <v>2152</v>
       </c>
-      <c r="D13" s="553" t="s">
+      <c r="D13" s="689" t="s">
         <v>2188</v>
       </c>
-      <c r="E13" s="554"/>
-      <c r="F13" s="554"/>
-      <c r="G13" s="554"/>
-      <c r="H13" s="554"/>
-      <c r="I13" s="554"/>
-      <c r="J13" s="554"/>
-      <c r="K13" s="555"/>
-    </row>
-    <row r="14" spans="1:11" s="549" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="690"/>
+      <c r="F13" s="690"/>
+      <c r="G13" s="690"/>
+      <c r="H13" s="690"/>
+      <c r="I13" s="690"/>
+      <c r="J13" s="690"/>
+      <c r="K13" s="691"/>
+    </row>
+    <row r="14" spans="1:11" s="549" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="546" t="s">
         <v>242</v>
       </c>
@@ -30015,318 +29995,318 @@
       <c r="H14" s="547"/>
       <c r="I14" s="547"/>
       <c r="J14" s="548"/>
-      <c r="K14" s="558"/>
-    </row>
-    <row r="15" spans="1:11" s="556" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="550" t="s">
+      <c r="K14" s="550"/>
+    </row>
+    <row r="15" spans="1:11" s="692" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="686" t="s">
         <v>1525</v>
       </c>
-      <c r="B15" s="551" t="s">
+      <c r="B15" s="687" t="s">
         <v>243</v>
       </c>
-      <c r="C15" s="552" t="s">
+      <c r="C15" s="688" t="s">
         <v>2152</v>
       </c>
-      <c r="D15" s="553" t="s">
+      <c r="D15" s="689" t="s">
         <v>2176</v>
       </c>
-      <c r="E15" s="554"/>
-      <c r="F15" s="554"/>
-      <c r="G15" s="554"/>
-      <c r="H15" s="554"/>
-      <c r="I15" s="554"/>
-      <c r="J15" s="554"/>
-      <c r="K15" s="555"/>
-    </row>
-    <row r="16" spans="1:11" s="556" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="550" t="s">
+      <c r="E15" s="690"/>
+      <c r="F15" s="690"/>
+      <c r="G15" s="690"/>
+      <c r="H15" s="690"/>
+      <c r="I15" s="690"/>
+      <c r="J15" s="690"/>
+      <c r="K15" s="691"/>
+    </row>
+    <row r="16" spans="1:11" s="692" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="686" t="s">
         <v>1526</v>
       </c>
-      <c r="B16" s="551" t="s">
+      <c r="B16" s="687" t="s">
         <v>2190</v>
       </c>
-      <c r="C16" s="552" t="s">
+      <c r="C16" s="688" t="s">
         <v>2152</v>
       </c>
-      <c r="D16" s="553" t="s">
+      <c r="D16" s="689" t="s">
         <v>2191</v>
       </c>
-      <c r="E16" s="554"/>
-      <c r="F16" s="554"/>
-      <c r="G16" s="554"/>
-      <c r="H16" s="554"/>
-      <c r="I16" s="554"/>
-      <c r="J16" s="554"/>
-      <c r="K16" s="555"/>
-    </row>
-    <row r="17" spans="1:11" s="556" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="550" t="s">
+      <c r="E16" s="690"/>
+      <c r="F16" s="690"/>
+      <c r="G16" s="690"/>
+      <c r="H16" s="690"/>
+      <c r="I16" s="690"/>
+      <c r="J16" s="690"/>
+      <c r="K16" s="691"/>
+    </row>
+    <row r="17" spans="1:11" s="692" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="686" t="s">
         <v>1527</v>
       </c>
-      <c r="B17" s="551" t="s">
+      <c r="B17" s="687" t="s">
         <v>1200</v>
       </c>
-      <c r="C17" s="552" t="s">
+      <c r="C17" s="688" t="s">
         <v>2152</v>
       </c>
-      <c r="D17" s="553" t="s">
+      <c r="D17" s="689" t="s">
         <v>2192</v>
       </c>
-      <c r="E17" s="554"/>
-      <c r="F17" s="554"/>
-      <c r="G17" s="554"/>
-      <c r="H17" s="554"/>
-      <c r="I17" s="554"/>
-      <c r="J17" s="554"/>
-      <c r="K17" s="555"/>
-    </row>
-    <row r="18" spans="1:11" s="563" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="550" t="s">
+      <c r="E17" s="690"/>
+      <c r="F17" s="690"/>
+      <c r="G17" s="690"/>
+      <c r="H17" s="690"/>
+      <c r="I17" s="690"/>
+      <c r="J17" s="690"/>
+      <c r="K17" s="691"/>
+    </row>
+    <row r="18" spans="1:11" s="692" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="686" t="s">
         <v>1528</v>
       </c>
-      <c r="B18" s="559" t="s">
+      <c r="B18" s="687" t="s">
         <v>2180</v>
       </c>
-      <c r="C18" s="552" t="s">
+      <c r="C18" s="688" t="s">
         <v>2152</v>
       </c>
-      <c r="D18" s="560" t="s">
+      <c r="D18" s="689" t="s">
         <v>2181</v>
       </c>
-      <c r="E18" s="561"/>
-      <c r="F18" s="561"/>
-      <c r="G18" s="561"/>
-      <c r="H18" s="561"/>
-      <c r="I18" s="561"/>
-      <c r="J18" s="561"/>
-      <c r="K18" s="562"/>
-    </row>
-    <row r="19" spans="1:11" s="556" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="550" t="s">
+      <c r="E18" s="690"/>
+      <c r="F18" s="690"/>
+      <c r="G18" s="690"/>
+      <c r="H18" s="690"/>
+      <c r="I18" s="690"/>
+      <c r="J18" s="690"/>
+      <c r="K18" s="691"/>
+    </row>
+    <row r="19" spans="1:11" s="692" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="686" t="s">
         <v>1529</v>
       </c>
-      <c r="B19" s="557" t="s">
+      <c r="B19" s="687" t="s">
         <v>245</v>
       </c>
-      <c r="C19" s="552" t="s">
+      <c r="C19" s="688" t="s">
         <v>2152</v>
       </c>
-      <c r="D19" s="553" t="s">
+      <c r="D19" s="689" t="s">
         <v>2182</v>
       </c>
-      <c r="E19" s="554"/>
-      <c r="F19" s="554"/>
-      <c r="G19" s="554"/>
-      <c r="H19" s="554"/>
-      <c r="I19" s="554"/>
-      <c r="J19" s="554"/>
-      <c r="K19" s="555"/>
-    </row>
-    <row r="20" spans="1:11" s="556" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="550" t="s">
+      <c r="E19" s="690"/>
+      <c r="F19" s="690"/>
+      <c r="G19" s="690"/>
+      <c r="H19" s="690"/>
+      <c r="I19" s="690"/>
+      <c r="J19" s="690"/>
+      <c r="K19" s="691"/>
+    </row>
+    <row r="20" spans="1:11" s="692" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="686" t="s">
         <v>1530</v>
       </c>
-      <c r="B20" s="557" t="s">
+      <c r="B20" s="687" t="s">
         <v>246</v>
       </c>
-      <c r="C20" s="552" t="s">
+      <c r="C20" s="688" t="s">
         <v>2152</v>
       </c>
-      <c r="D20" s="553" t="s">
+      <c r="D20" s="689" t="s">
         <v>2193</v>
       </c>
-      <c r="E20" s="554"/>
-      <c r="F20" s="554"/>
-      <c r="G20" s="554"/>
-      <c r="H20" s="554"/>
-      <c r="I20" s="554"/>
-      <c r="J20" s="554"/>
-      <c r="K20" s="555"/>
-    </row>
-    <row r="21" spans="1:11" s="556" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="550" t="s">
+      <c r="E20" s="690"/>
+      <c r="F20" s="690"/>
+      <c r="G20" s="690"/>
+      <c r="H20" s="690"/>
+      <c r="I20" s="690"/>
+      <c r="J20" s="690"/>
+      <c r="K20" s="691"/>
+    </row>
+    <row r="21" spans="1:11" s="692" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="686" t="s">
         <v>1531</v>
       </c>
-      <c r="B21" s="557" t="s">
+      <c r="B21" s="687" t="s">
         <v>247</v>
       </c>
-      <c r="C21" s="552" t="s">
+      <c r="C21" s="688" t="s">
         <v>2152</v>
       </c>
-      <c r="D21" s="553" t="s">
+      <c r="D21" s="689" t="s">
         <v>2184</v>
       </c>
-      <c r="E21" s="554"/>
-      <c r="F21" s="554"/>
-      <c r="G21" s="554"/>
-      <c r="H21" s="554"/>
-      <c r="I21" s="554"/>
-      <c r="J21" s="554"/>
-      <c r="K21" s="555"/>
-    </row>
-    <row r="22" spans="1:11" s="556" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="550" t="s">
+      <c r="E21" s="690"/>
+      <c r="F21" s="690"/>
+      <c r="G21" s="690"/>
+      <c r="H21" s="690"/>
+      <c r="I21" s="690"/>
+      <c r="J21" s="690"/>
+      <c r="K21" s="691"/>
+    </row>
+    <row r="22" spans="1:11" s="692" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="686" t="s">
         <v>1532</v>
       </c>
-      <c r="B22" s="557" t="s">
+      <c r="B22" s="687" t="s">
         <v>248</v>
       </c>
-      <c r="C22" s="552" t="s">
+      <c r="C22" s="688" t="s">
         <v>2152</v>
       </c>
-      <c r="D22" s="553" t="s">
+      <c r="D22" s="689" t="s">
         <v>2185</v>
       </c>
-      <c r="E22" s="554"/>
-      <c r="F22" s="554"/>
-      <c r="G22" s="554"/>
-      <c r="H22" s="554"/>
-      <c r="I22" s="554"/>
-      <c r="J22" s="554"/>
-      <c r="K22" s="555"/>
-    </row>
-    <row r="23" spans="1:11" s="556" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="550" t="s">
+      <c r="E22" s="690"/>
+      <c r="F22" s="690"/>
+      <c r="G22" s="690"/>
+      <c r="H22" s="690"/>
+      <c r="I22" s="690"/>
+      <c r="J22" s="690"/>
+      <c r="K22" s="691"/>
+    </row>
+    <row r="23" spans="1:11" s="692" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="686" t="s">
         <v>1533</v>
       </c>
-      <c r="B23" s="557" t="s">
+      <c r="B23" s="687" t="s">
         <v>249</v>
       </c>
-      <c r="C23" s="552" t="s">
+      <c r="C23" s="688" t="s">
         <v>2152</v>
       </c>
-      <c r="D23" s="553" t="s">
+      <c r="D23" s="689" t="s">
         <v>2186</v>
       </c>
-      <c r="E23" s="554"/>
-      <c r="F23" s="554"/>
-      <c r="G23" s="554"/>
-      <c r="H23" s="554"/>
-      <c r="I23" s="554"/>
-      <c r="J23" s="554"/>
-      <c r="K23" s="555"/>
-    </row>
-    <row r="24" spans="1:11" s="556" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="550" t="s">
+      <c r="E23" s="690"/>
+      <c r="F23" s="690"/>
+      <c r="G23" s="690"/>
+      <c r="H23" s="690"/>
+      <c r="I23" s="690"/>
+      <c r="J23" s="690"/>
+      <c r="K23" s="691"/>
+    </row>
+    <row r="24" spans="1:11" s="692" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="686" t="s">
         <v>1534</v>
       </c>
-      <c r="B24" s="557" t="s">
+      <c r="B24" s="687" t="s">
         <v>250</v>
       </c>
-      <c r="C24" s="552" t="s">
+      <c r="C24" s="688" t="s">
         <v>2152</v>
       </c>
-      <c r="D24" s="553" t="s">
+      <c r="D24" s="689" t="s">
         <v>2187</v>
       </c>
-      <c r="E24" s="554"/>
-      <c r="F24" s="554"/>
-      <c r="G24" s="554"/>
-      <c r="H24" s="554"/>
-      <c r="I24" s="554"/>
-      <c r="J24" s="554"/>
-      <c r="K24" s="555"/>
-    </row>
-    <row r="25" spans="1:11" s="556" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="564" t="s">
+      <c r="E24" s="690"/>
+      <c r="F24" s="690"/>
+      <c r="G24" s="690"/>
+      <c r="H24" s="690"/>
+      <c r="I24" s="690"/>
+      <c r="J24" s="690"/>
+      <c r="K24" s="691"/>
+    </row>
+    <row r="25" spans="1:11" s="692" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="693" t="s">
         <v>2232</v>
       </c>
-      <c r="B25" s="565" t="s">
+      <c r="B25" s="694" t="s">
         <v>251</v>
       </c>
-      <c r="C25" s="566" t="s">
+      <c r="C25" s="695" t="s">
         <v>2152</v>
       </c>
-      <c r="D25" s="567" t="s">
+      <c r="D25" s="696" t="s">
         <v>2188</v>
       </c>
-      <c r="E25" s="568"/>
-      <c r="F25" s="568"/>
-      <c r="G25" s="568"/>
-      <c r="H25" s="568"/>
-      <c r="I25" s="568"/>
-      <c r="J25" s="568"/>
-      <c r="K25" s="569"/>
-    </row>
-    <row r="26" spans="1:11" s="571" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="586" t="s">
+      <c r="E25" s="697"/>
+      <c r="F25" s="697"/>
+      <c r="G25" s="697"/>
+      <c r="H25" s="697"/>
+      <c r="I25" s="697"/>
+      <c r="J25" s="697"/>
+      <c r="K25" s="698"/>
+    </row>
+    <row r="26" spans="1:11" s="552" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="569" t="s">
         <v>2194</v>
       </c>
-      <c r="B26" s="586"/>
-      <c r="C26" s="570"/>
-      <c r="D26" s="570"/>
-      <c r="E26" s="570"/>
-      <c r="F26" s="570"/>
-      <c r="G26" s="570"/>
-      <c r="H26" s="570"/>
-      <c r="I26" s="570"/>
-      <c r="J26" s="570"/>
-      <c r="K26" s="570"/>
-    </row>
-    <row r="27" spans="1:11" s="575" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="572" t="s">
+      <c r="B26" s="569"/>
+      <c r="C26" s="551"/>
+      <c r="D26" s="551"/>
+      <c r="E26" s="551"/>
+      <c r="F26" s="551"/>
+      <c r="G26" s="551"/>
+      <c r="H26" s="551"/>
+      <c r="I26" s="551"/>
+      <c r="J26" s="551"/>
+      <c r="K26" s="551"/>
+    </row>
+    <row r="27" spans="1:11" s="700" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="699" t="s">
         <v>2233</v>
       </c>
-      <c r="B27" s="573" t="s">
+      <c r="B27" s="479" t="s">
         <v>2195</v>
       </c>
-      <c r="C27" s="573" t="s">
+      <c r="C27" s="479" t="s">
         <v>2196</v>
       </c>
-      <c r="D27" s="573" t="s">
+      <c r="D27" s="479" t="s">
         <v>2197</v>
       </c>
-      <c r="E27" s="574"/>
-      <c r="F27" s="574"/>
-      <c r="G27" s="574"/>
-      <c r="H27" s="574"/>
-      <c r="I27" s="574"/>
-      <c r="J27" s="574"/>
-      <c r="K27" s="574"/>
-    </row>
-    <row r="28" spans="1:11" s="575" customFormat="1" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="572" t="s">
+      <c r="E27" s="498"/>
+      <c r="F27" s="498"/>
+      <c r="G27" s="498"/>
+      <c r="H27" s="498"/>
+      <c r="I27" s="498"/>
+      <c r="J27" s="498"/>
+      <c r="K27" s="498"/>
+    </row>
+    <row r="28" spans="1:11" s="700" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="699" t="s">
         <v>2234</v>
       </c>
-      <c r="B28" s="573" t="s">
+      <c r="B28" s="479" t="s">
         <v>2198</v>
       </c>
-      <c r="C28" s="573" t="s">
+      <c r="C28" s="479" t="s">
         <v>2196</v>
       </c>
-      <c r="D28" s="573" t="s">
+      <c r="D28" s="479" t="s">
         <v>2199</v>
       </c>
-      <c r="E28" s="574"/>
-      <c r="F28" s="574"/>
-      <c r="G28" s="574"/>
-      <c r="H28" s="574"/>
-      <c r="I28" s="574"/>
-      <c r="J28" s="574"/>
-      <c r="K28" s="574"/>
-    </row>
-    <row r="29" spans="1:11" s="575" customFormat="1" ht="188.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="572" t="s">
+      <c r="E28" s="498"/>
+      <c r="F28" s="498"/>
+      <c r="G28" s="498"/>
+      <c r="H28" s="498"/>
+      <c r="I28" s="498"/>
+      <c r="J28" s="498"/>
+      <c r="K28" s="498"/>
+    </row>
+    <row r="29" spans="1:11" s="700" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="699" t="s">
         <v>2235</v>
       </c>
-      <c r="B29" s="573" t="s">
+      <c r="B29" s="479" t="s">
         <v>2200</v>
       </c>
-      <c r="C29" s="573" t="s">
+      <c r="C29" s="479" t="s">
         <v>2196</v>
       </c>
-      <c r="D29" s="573" t="s">
+      <c r="D29" s="479" t="s">
         <v>2201</v>
       </c>
-      <c r="E29" s="574"/>
-      <c r="F29" s="574"/>
-      <c r="G29" s="574"/>
-      <c r="H29" s="574"/>
-      <c r="I29" s="574"/>
-      <c r="J29" s="574"/>
-      <c r="K29" s="574"/>
-    </row>
-    <row r="30" spans="1:11" s="139" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E29" s="498"/>
+      <c r="F29" s="498"/>
+      <c r="G29" s="498"/>
+      <c r="H29" s="498"/>
+      <c r="I29" s="498"/>
+      <c r="J29" s="498"/>
+      <c r="K29" s="498"/>
+    </row>
+    <row r="30" spans="1:11" s="139" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="134" t="s">
         <v>2202</v>
       </c>
@@ -30341,47 +30321,47 @@
       <c r="J30" s="134"/>
       <c r="K30" s="134"/>
     </row>
-    <row r="31" spans="1:11" s="575" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="572" t="s">
+    <row r="31" spans="1:11" s="556" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="553" t="s">
         <v>2236</v>
       </c>
-      <c r="B31" s="573" t="s">
+      <c r="B31" s="554" t="s">
         <v>2203</v>
       </c>
-      <c r="C31" s="573" t="s">
+      <c r="C31" s="554" t="s">
         <v>2196</v>
       </c>
-      <c r="D31" s="573" t="s">
+      <c r="D31" s="554" t="s">
         <v>2204</v>
       </c>
-      <c r="E31" s="574"/>
-      <c r="F31" s="574"/>
-      <c r="G31" s="574"/>
-      <c r="H31" s="574"/>
-      <c r="I31" s="574"/>
-      <c r="J31" s="574"/>
-      <c r="K31" s="574"/>
-    </row>
-    <row r="32" spans="1:11" s="575" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="572" t="s">
+      <c r="E31" s="555"/>
+      <c r="F31" s="555"/>
+      <c r="G31" s="555"/>
+      <c r="H31" s="555"/>
+      <c r="I31" s="555"/>
+      <c r="J31" s="555"/>
+      <c r="K31" s="555"/>
+    </row>
+    <row r="32" spans="1:11" s="556" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="553" t="s">
         <v>2237</v>
       </c>
-      <c r="B32" s="573" t="s">
+      <c r="B32" s="554" t="s">
         <v>2205</v>
       </c>
-      <c r="C32" s="573" t="s">
+      <c r="C32" s="554" t="s">
         <v>2196</v>
       </c>
-      <c r="D32" s="573" t="s">
+      <c r="D32" s="554" t="s">
         <v>2206</v>
       </c>
-      <c r="E32" s="576"/>
-      <c r="F32" s="576"/>
-      <c r="G32" s="576"/>
-      <c r="H32" s="576"/>
-      <c r="I32" s="576"/>
-      <c r="J32" s="576"/>
-      <c r="K32" s="576"/>
+      <c r="E32" s="557"/>
+      <c r="F32" s="557"/>
+      <c r="G32" s="557"/>
+      <c r="H32" s="557"/>
+      <c r="I32" s="557"/>
+      <c r="J32" s="557"/>
+      <c r="K32" s="557"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -39635,98 +39615,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="694" t="s">
+      <c r="A1" s="674" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="682" t="s">
+      <c r="B1" s="672" t="s">
         <v>612</v>
       </c>
-      <c r="C1" s="682" t="s">
+      <c r="C1" s="672" t="s">
         <v>613</v>
       </c>
-      <c r="D1" s="682" t="s">
+      <c r="D1" s="672" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="682" t="s">
+      <c r="E1" s="672" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="682" t="s">
+      <c r="F1" s="672" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="682" t="s">
+      <c r="G1" s="672" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="682" t="s">
+      <c r="H1" s="672" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="682" t="s">
+      <c r="I1" s="672" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="682" t="s">
+      <c r="J1" s="672" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="682" t="s">
+      <c r="K1" s="672" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="682" t="s">
+      <c r="L1" s="672" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="691" t="s">
+      <c r="M1" s="677" t="s">
         <v>614</v>
       </c>
-      <c r="N1" s="692" t="s">
+      <c r="N1" s="665" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="683"/>
-      <c r="B2" s="683"/>
-      <c r="C2" s="683"/>
-      <c r="D2" s="683"/>
-      <c r="E2" s="683"/>
-      <c r="F2" s="683"/>
-      <c r="G2" s="683"/>
-      <c r="H2" s="683"/>
-      <c r="I2" s="683"/>
-      <c r="J2" s="683"/>
-      <c r="K2" s="683"/>
-      <c r="L2" s="683"/>
-      <c r="M2" s="683"/>
-      <c r="N2" s="686"/>
+      <c r="A2" s="673"/>
+      <c r="B2" s="673"/>
+      <c r="C2" s="673"/>
+      <c r="D2" s="673"/>
+      <c r="E2" s="673"/>
+      <c r="F2" s="673"/>
+      <c r="G2" s="673"/>
+      <c r="H2" s="673"/>
+      <c r="I2" s="673"/>
+      <c r="J2" s="673"/>
+      <c r="K2" s="673"/>
+      <c r="L2" s="673"/>
+      <c r="M2" s="673"/>
+      <c r="N2" s="666"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="688" t="s">
+      <c r="A3" s="667" t="s">
         <v>616</v>
       </c>
-      <c r="B3" s="689"/>
-      <c r="C3" s="689"/>
-      <c r="D3" s="689"/>
-      <c r="E3" s="689"/>
-      <c r="F3" s="689"/>
-      <c r="G3" s="689"/>
-      <c r="H3" s="689"/>
-      <c r="I3" s="689"/>
-      <c r="J3" s="689"/>
-      <c r="K3" s="689"/>
-      <c r="L3" s="690"/>
+      <c r="B3" s="668"/>
+      <c r="C3" s="668"/>
+      <c r="D3" s="668"/>
+      <c r="E3" s="668"/>
+      <c r="F3" s="668"/>
+      <c r="G3" s="668"/>
+      <c r="H3" s="668"/>
+      <c r="I3" s="668"/>
+      <c r="J3" s="668"/>
+      <c r="K3" s="668"/>
+      <c r="L3" s="669"/>
       <c r="M3" s="229"/>
       <c r="N3" s="230"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="693" t="s">
+      <c r="A4" s="670" t="s">
         <v>617</v>
       </c>
-      <c r="B4" s="689"/>
-      <c r="C4" s="689"/>
-      <c r="D4" s="689"/>
-      <c r="E4" s="689"/>
-      <c r="F4" s="689"/>
-      <c r="G4" s="689"/>
-      <c r="H4" s="689"/>
-      <c r="I4" s="689"/>
-      <c r="J4" s="689"/>
-      <c r="K4" s="689"/>
-      <c r="L4" s="690"/>
+      <c r="B4" s="668"/>
+      <c r="C4" s="668"/>
+      <c r="D4" s="668"/>
+      <c r="E4" s="668"/>
+      <c r="F4" s="668"/>
+      <c r="G4" s="668"/>
+      <c r="H4" s="668"/>
+      <c r="I4" s="668"/>
+      <c r="J4" s="668"/>
+      <c r="K4" s="668"/>
+      <c r="L4" s="669"/>
       <c r="M4" s="231"/>
       <c r="N4" s="232"/>
     </row>
@@ -39900,20 +39880,20 @@
       <c r="N10" s="539"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="688" t="s">
+      <c r="A11" s="667" t="s">
         <v>637</v>
       </c>
-      <c r="B11" s="685"/>
-      <c r="C11" s="689"/>
-      <c r="D11" s="689"/>
-      <c r="E11" s="685"/>
-      <c r="F11" s="689"/>
-      <c r="G11" s="689"/>
-      <c r="H11" s="685"/>
-      <c r="I11" s="685"/>
-      <c r="J11" s="685"/>
-      <c r="K11" s="685"/>
-      <c r="L11" s="686"/>
+      <c r="B11" s="671"/>
+      <c r="C11" s="668"/>
+      <c r="D11" s="668"/>
+      <c r="E11" s="671"/>
+      <c r="F11" s="668"/>
+      <c r="G11" s="668"/>
+      <c r="H11" s="671"/>
+      <c r="I11" s="671"/>
+      <c r="J11" s="671"/>
+      <c r="K11" s="671"/>
+      <c r="L11" s="666"/>
       <c r="M11" s="229"/>
       <c r="N11" s="229"/>
     </row>
@@ -39974,20 +39954,20 @@
       <c r="N13" s="263"/>
     </row>
     <row r="14" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="688" t="s">
+      <c r="A14" s="667" t="s">
         <v>645</v>
       </c>
-      <c r="B14" s="689"/>
-      <c r="C14" s="689"/>
-      <c r="D14" s="689"/>
-      <c r="E14" s="689"/>
-      <c r="F14" s="689"/>
-      <c r="G14" s="689"/>
-      <c r="H14" s="689"/>
-      <c r="I14" s="689"/>
-      <c r="J14" s="689"/>
-      <c r="K14" s="689"/>
-      <c r="L14" s="690"/>
+      <c r="B14" s="668"/>
+      <c r="C14" s="668"/>
+      <c r="D14" s="668"/>
+      <c r="E14" s="668"/>
+      <c r="F14" s="668"/>
+      <c r="G14" s="668"/>
+      <c r="H14" s="668"/>
+      <c r="I14" s="668"/>
+      <c r="J14" s="668"/>
+      <c r="K14" s="668"/>
+      <c r="L14" s="669"/>
       <c r="M14" s="262"/>
       <c r="N14" s="263"/>
     </row>
@@ -40048,20 +40028,20 @@
       <c r="N16" s="271"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="684" t="s">
+      <c r="A17" s="675" t="s">
         <v>652</v>
       </c>
-      <c r="B17" s="685"/>
-      <c r="C17" s="685"/>
-      <c r="D17" s="685"/>
-      <c r="E17" s="685"/>
-      <c r="F17" s="685"/>
-      <c r="G17" s="685"/>
-      <c r="H17" s="685"/>
-      <c r="I17" s="685"/>
-      <c r="J17" s="685"/>
-      <c r="K17" s="685"/>
-      <c r="L17" s="686"/>
+      <c r="B17" s="671"/>
+      <c r="C17" s="671"/>
+      <c r="D17" s="671"/>
+      <c r="E17" s="671"/>
+      <c r="F17" s="671"/>
+      <c r="G17" s="671"/>
+      <c r="H17" s="671"/>
+      <c r="I17" s="671"/>
+      <c r="J17" s="671"/>
+      <c r="K17" s="671"/>
+      <c r="L17" s="666"/>
       <c r="M17" s="272"/>
       <c r="N17" s="273"/>
     </row>
@@ -40378,20 +40358,20 @@
       <c r="N30" s="310"/>
     </row>
     <row r="31" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="687" t="s">
+      <c r="A31" s="676" t="s">
         <v>690</v>
       </c>
-      <c r="B31" s="685"/>
-      <c r="C31" s="685"/>
-      <c r="D31" s="685"/>
-      <c r="E31" s="685"/>
-      <c r="F31" s="685"/>
-      <c r="G31" s="685"/>
-      <c r="H31" s="685"/>
-      <c r="I31" s="685"/>
-      <c r="J31" s="685"/>
-      <c r="K31" s="685"/>
-      <c r="L31" s="686"/>
+      <c r="B31" s="671"/>
+      <c r="C31" s="671"/>
+      <c r="D31" s="671"/>
+      <c r="E31" s="671"/>
+      <c r="F31" s="671"/>
+      <c r="G31" s="671"/>
+      <c r="H31" s="671"/>
+      <c r="I31" s="671"/>
+      <c r="J31" s="671"/>
+      <c r="K31" s="671"/>
+      <c r="L31" s="666"/>
       <c r="M31" s="311"/>
       <c r="N31" s="311"/>
     </row>
@@ -54839,6 +54819,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A31:L31"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A4:L4"/>
@@ -54855,10 +54839,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A31:L31"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="M1:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -54889,56 +54869,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="697" t="s">
+      <c r="A1" s="680" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="699" t="s">
+      <c r="B1" s="682" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="699" t="s">
+      <c r="C1" s="682" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="700" t="s">
+      <c r="D1" s="683" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="700" t="s">
+      <c r="E1" s="683" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="699" t="s">
+      <c r="F1" s="682" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="699" t="s">
+      <c r="G1" s="682" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="699" t="s">
+      <c r="H1" s="682" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="699" t="s">
+      <c r="I1" s="682" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="699" t="s">
+      <c r="J1" s="682" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="702" t="s">
+      <c r="K1" s="685" t="s">
         <v>614</v>
       </c>
-      <c r="L1" s="695" t="s">
+      <c r="L1" s="678" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="698"/>
-      <c r="B2" s="698"/>
-      <c r="C2" s="698"/>
-      <c r="D2" s="701"/>
-      <c r="E2" s="701"/>
-      <c r="F2" s="698"/>
-      <c r="G2" s="698"/>
-      <c r="H2" s="698"/>
-      <c r="I2" s="698"/>
-      <c r="J2" s="698"/>
-      <c r="K2" s="698"/>
-      <c r="L2" s="696"/>
+      <c r="A2" s="681"/>
+      <c r="B2" s="681"/>
+      <c r="C2" s="681"/>
+      <c r="D2" s="684"/>
+      <c r="E2" s="684"/>
+      <c r="F2" s="681"/>
+      <c r="G2" s="681"/>
+      <c r="H2" s="681"/>
+      <c r="I2" s="681"/>
+      <c r="J2" s="681"/>
+      <c r="K2" s="681"/>
+      <c r="L2" s="679"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="330" t="s">
@@ -57297,10 +57277,10 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.75" style="119" customWidth="1"/>
     <col min="2" max="2" width="64.125" style="119" customWidth="1"/>
@@ -57309,7 +57289,7 @@
     <col min="6" max="16384" width="9.125" style="119"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="166" t="s">
         <v>56</v>
       </c>
@@ -57342,179 +57322,179 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="153" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="587" t="s">
+    <row r="2" spans="1:11" s="153" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="570" t="s">
         <v>241</v>
       </c>
-      <c r="B2" s="587"/>
-      <c r="C2" s="578"/>
-      <c r="D2" s="578"/>
-      <c r="E2" s="578"/>
-      <c r="F2" s="578"/>
-      <c r="G2" s="578"/>
-      <c r="H2" s="578"/>
-      <c r="I2" s="578"/>
-      <c r="J2" s="578"/>
-      <c r="K2" s="578"/>
-    </row>
-    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="570"/>
+      <c r="C2" s="559"/>
+      <c r="D2" s="559"/>
+      <c r="E2" s="559"/>
+      <c r="F2" s="559"/>
+      <c r="G2" s="559"/>
+      <c r="H2" s="559"/>
+      <c r="I2" s="559"/>
+      <c r="J2" s="559"/>
+      <c r="K2" s="559"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="187" t="s">
         <v>2238</v>
       </c>
-      <c r="B3" s="579" t="s">
+      <c r="B3" s="560" t="s">
         <v>2207</v>
       </c>
-      <c r="C3" s="579" t="s">
+      <c r="C3" s="560" t="s">
         <v>2196</v>
       </c>
-      <c r="D3" s="579" t="s">
+      <c r="D3" s="560" t="s">
         <v>2208</v>
       </c>
-      <c r="E3" s="580"/>
-      <c r="F3" s="580"/>
-      <c r="G3" s="580"/>
-      <c r="H3" s="580"/>
-      <c r="I3" s="580"/>
-      <c r="J3" s="580"/>
-      <c r="K3" s="580"/>
-    </row>
-    <row r="4" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="581" t="s">
+      <c r="E3" s="561"/>
+      <c r="F3" s="561"/>
+      <c r="G3" s="561"/>
+      <c r="H3" s="561"/>
+      <c r="I3" s="561"/>
+      <c r="J3" s="561"/>
+      <c r="K3" s="561"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="562" t="s">
         <v>2239</v>
       </c>
-      <c r="B4" s="579" t="s">
+      <c r="B4" s="560" t="s">
         <v>2209</v>
       </c>
-      <c r="C4" s="579" t="s">
+      <c r="C4" s="560" t="s">
         <v>2196</v>
       </c>
-      <c r="D4" s="579" t="s">
+      <c r="D4" s="560" t="s">
         <v>2210</v>
       </c>
-      <c r="E4" s="580"/>
-      <c r="F4" s="580"/>
-      <c r="G4" s="580"/>
-      <c r="H4" s="580"/>
-      <c r="I4" s="580"/>
-      <c r="J4" s="580"/>
-      <c r="K4" s="580"/>
+      <c r="E4" s="561"/>
+      <c r="F4" s="561"/>
+      <c r="G4" s="561"/>
+      <c r="H4" s="561"/>
+      <c r="I4" s="561"/>
+      <c r="J4" s="561"/>
+      <c r="K4" s="561"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="581" t="s">
+      <c r="A5" s="562" t="s">
         <v>2240</v>
       </c>
-      <c r="B5" s="580" t="s">
+      <c r="B5" s="561" t="s">
         <v>2211</v>
       </c>
-      <c r="C5" s="579" t="s">
+      <c r="C5" s="560" t="s">
         <v>2196</v>
       </c>
-      <c r="D5" s="579" t="s">
+      <c r="D5" s="560" t="s">
         <v>2212</v>
       </c>
-      <c r="E5" s="580"/>
-      <c r="F5" s="580"/>
-      <c r="G5" s="580"/>
-      <c r="H5" s="580"/>
-      <c r="I5" s="580"/>
-      <c r="J5" s="580"/>
-      <c r="K5" s="580"/>
-    </row>
-    <row r="6" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="581" t="s">
+      <c r="E5" s="561"/>
+      <c r="F5" s="561"/>
+      <c r="G5" s="561"/>
+      <c r="H5" s="561"/>
+      <c r="I5" s="561"/>
+      <c r="J5" s="561"/>
+      <c r="K5" s="561"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="562" t="s">
         <v>2241</v>
       </c>
-      <c r="B6" s="580" t="s">
+      <c r="B6" s="561" t="s">
         <v>2213</v>
       </c>
-      <c r="C6" s="579" t="s">
+      <c r="C6" s="560" t="s">
         <v>2196</v>
       </c>
-      <c r="D6" s="579" t="s">
+      <c r="D6" s="560" t="s">
         <v>2214</v>
       </c>
-      <c r="E6" s="580"/>
-      <c r="F6" s="580"/>
-      <c r="G6" s="580"/>
-      <c r="H6" s="580"/>
-      <c r="I6" s="580"/>
-      <c r="J6" s="580"/>
-      <c r="K6" s="580"/>
-    </row>
-    <row r="7" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="581" t="s">
+      <c r="E6" s="561"/>
+      <c r="F6" s="561"/>
+      <c r="G6" s="561"/>
+      <c r="H6" s="561"/>
+      <c r="I6" s="561"/>
+      <c r="J6" s="561"/>
+      <c r="K6" s="561"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="562" t="s">
         <v>2242</v>
       </c>
-      <c r="B7" s="580" t="s">
+      <c r="B7" s="561" t="s">
         <v>2215</v>
       </c>
-      <c r="C7" s="579" t="s">
+      <c r="C7" s="560" t="s">
         <v>2196</v>
       </c>
-      <c r="D7" s="579" t="s">
+      <c r="D7" s="560" t="s">
         <v>2216</v>
       </c>
-      <c r="E7" s="580"/>
-      <c r="F7" s="580"/>
-      <c r="G7" s="580"/>
-      <c r="H7" s="580"/>
-      <c r="I7" s="580"/>
-      <c r="J7" s="580"/>
-      <c r="K7" s="580"/>
-    </row>
-    <row r="8" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="581" t="s">
+      <c r="E7" s="561"/>
+      <c r="F7" s="561"/>
+      <c r="G7" s="561"/>
+      <c r="H7" s="561"/>
+      <c r="I7" s="561"/>
+      <c r="J7" s="561"/>
+      <c r="K7" s="561"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="562" t="s">
         <v>2243</v>
       </c>
-      <c r="B8" s="580" t="s">
+      <c r="B8" s="561" t="s">
         <v>2217</v>
       </c>
-      <c r="C8" s="579" t="s">
+      <c r="C8" s="560" t="s">
         <v>2196</v>
       </c>
-      <c r="D8" s="579" t="s">
+      <c r="D8" s="560" t="s">
         <v>2218</v>
       </c>
-      <c r="E8" s="580"/>
-      <c r="F8" s="580"/>
-      <c r="G8" s="580"/>
-      <c r="H8" s="580"/>
-      <c r="I8" s="580"/>
-      <c r="J8" s="580"/>
-      <c r="K8" s="580"/>
-    </row>
-    <row r="9" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="581" t="s">
+      <c r="E8" s="561"/>
+      <c r="F8" s="561"/>
+      <c r="G8" s="561"/>
+      <c r="H8" s="561"/>
+      <c r="I8" s="561"/>
+      <c r="J8" s="561"/>
+      <c r="K8" s="561"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="562" t="s">
         <v>2244</v>
       </c>
-      <c r="B9" s="580" t="s">
+      <c r="B9" s="561" t="s">
         <v>2219</v>
       </c>
-      <c r="C9" s="579" t="s">
+      <c r="C9" s="560" t="s">
         <v>2196</v>
       </c>
-      <c r="D9" s="579" t="s">
+      <c r="D9" s="560" t="s">
         <v>2220</v>
       </c>
-      <c r="E9" s="580"/>
-      <c r="F9" s="580"/>
-      <c r="G9" s="580"/>
-      <c r="H9" s="580"/>
-      <c r="I9" s="580"/>
-      <c r="J9" s="580"/>
-      <c r="K9" s="580"/>
-    </row>
-    <row r="10" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="581" t="s">
+      <c r="E9" s="561"/>
+      <c r="F9" s="561"/>
+      <c r="G9" s="561"/>
+      <c r="H9" s="561"/>
+      <c r="I9" s="561"/>
+      <c r="J9" s="561"/>
+      <c r="K9" s="561"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="562" t="s">
         <v>2245</v>
       </c>
-      <c r="B10" s="580" t="s">
+      <c r="B10" s="561" t="s">
         <v>2221</v>
       </c>
-      <c r="C10" s="579" t="s">
+      <c r="C10" s="560" t="s">
         <v>2196</v>
       </c>
-      <c r="D10" s="579" t="s">
+      <c r="D10" s="560" t="s">
         <v>2222</v>
       </c>
       <c r="E10" s="130"/>
@@ -57525,17 +57505,17 @@
       <c r="J10" s="130"/>
       <c r="K10" s="130"/>
     </row>
-    <row r="11" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="581" t="s">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="562" t="s">
         <v>2246</v>
       </c>
-      <c r="B11" s="580" t="s">
+      <c r="B11" s="561" t="s">
         <v>2223</v>
       </c>
-      <c r="C11" s="579" t="s">
+      <c r="C11" s="560" t="s">
         <v>2196</v>
       </c>
-      <c r="D11" s="579" t="s">
+      <c r="D11" s="560" t="s">
         <v>2224</v>
       </c>
       <c r="E11" s="130"/>
@@ -57546,14 +57526,14 @@
       <c r="J11" s="130"/>
       <c r="K11" s="130"/>
     </row>
-    <row r="12" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="581" t="s">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="562" t="s">
         <v>2247</v>
       </c>
-      <c r="B12" s="579" t="s">
+      <c r="B12" s="560" t="s">
         <v>2225</v>
       </c>
-      <c r="C12" s="579" t="s">
+      <c r="C12" s="560" t="s">
         <v>2196</v>
       </c>
       <c r="D12" s="124" t="s">
@@ -57567,199 +57547,199 @@
       <c r="J12" s="130"/>
       <c r="K12" s="130"/>
     </row>
-    <row r="13" spans="1:11" s="584" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="587" t="s">
+    <row r="13" spans="1:11" s="565" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="570" t="s">
         <v>242</v>
       </c>
-      <c r="B13" s="587"/>
-      <c r="C13" s="582"/>
-      <c r="D13" s="582"/>
-      <c r="E13" s="582"/>
-      <c r="F13" s="582"/>
-      <c r="G13" s="582"/>
-      <c r="H13" s="582"/>
-      <c r="I13" s="582"/>
-      <c r="J13" s="583"/>
-      <c r="K13" s="583"/>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="581" t="s">
+      <c r="B13" s="570"/>
+      <c r="C13" s="563"/>
+      <c r="D13" s="563"/>
+      <c r="E13" s="563"/>
+      <c r="F13" s="563"/>
+      <c r="G13" s="563"/>
+      <c r="H13" s="563"/>
+      <c r="I13" s="563"/>
+      <c r="J13" s="564"/>
+      <c r="K13" s="564"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="562" t="s">
         <v>2248</v>
       </c>
-      <c r="B14" s="579" t="s">
+      <c r="B14" s="560" t="s">
         <v>2227</v>
       </c>
-      <c r="C14" s="579" t="s">
+      <c r="C14" s="560" t="s">
         <v>2196</v>
       </c>
-      <c r="D14" s="579" t="s">
+      <c r="D14" s="560" t="s">
         <v>2228</v>
       </c>
-      <c r="E14" s="580"/>
-      <c r="F14" s="580"/>
-      <c r="G14" s="580"/>
-      <c r="H14" s="580"/>
-      <c r="I14" s="580"/>
-      <c r="J14" s="580"/>
-      <c r="K14" s="580"/>
-    </row>
-    <row r="15" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="581" t="s">
+      <c r="E14" s="561"/>
+      <c r="F14" s="561"/>
+      <c r="G14" s="561"/>
+      <c r="H14" s="561"/>
+      <c r="I14" s="561"/>
+      <c r="J14" s="561"/>
+      <c r="K14" s="561"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="562" t="s">
         <v>2249</v>
       </c>
-      <c r="B15" s="579" t="s">
+      <c r="B15" s="560" t="s">
         <v>2229</v>
       </c>
-      <c r="C15" s="579" t="s">
+      <c r="C15" s="560" t="s">
         <v>2196</v>
       </c>
-      <c r="D15" s="579" t="s">
+      <c r="D15" s="560" t="s">
         <v>2201</v>
       </c>
-      <c r="E15" s="580"/>
-      <c r="F15" s="580"/>
-      <c r="G15" s="580"/>
-      <c r="H15" s="580"/>
-      <c r="I15" s="580"/>
-      <c r="J15" s="580"/>
-      <c r="K15" s="580"/>
-    </row>
-    <row r="16" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="581" t="s">
+      <c r="E15" s="561"/>
+      <c r="F15" s="561"/>
+      <c r="G15" s="561"/>
+      <c r="H15" s="561"/>
+      <c r="I15" s="561"/>
+      <c r="J15" s="561"/>
+      <c r="K15" s="561"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="562" t="s">
         <v>2250</v>
       </c>
-      <c r="B16" s="579" t="s">
+      <c r="B16" s="560" t="s">
         <v>2230</v>
       </c>
-      <c r="C16" s="579" t="s">
+      <c r="C16" s="560" t="s">
         <v>2196</v>
       </c>
-      <c r="D16" s="579" t="s">
+      <c r="D16" s="560" t="s">
         <v>2197</v>
       </c>
-      <c r="E16" s="580"/>
-      <c r="F16" s="580"/>
-      <c r="G16" s="580"/>
-      <c r="H16" s="580"/>
-      <c r="I16" s="580"/>
-      <c r="J16" s="580"/>
-      <c r="K16" s="580"/>
-    </row>
-    <row r="17" spans="1:11" s="584" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="587" t="s">
+      <c r="E16" s="561"/>
+      <c r="F16" s="561"/>
+      <c r="G16" s="561"/>
+      <c r="H16" s="561"/>
+      <c r="I16" s="561"/>
+      <c r="J16" s="561"/>
+      <c r="K16" s="561"/>
+    </row>
+    <row r="17" spans="1:11" s="565" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="570" t="s">
         <v>2194</v>
       </c>
-      <c r="B17" s="587"/>
-      <c r="C17" s="582"/>
-      <c r="D17" s="582"/>
-      <c r="E17" s="582"/>
-      <c r="F17" s="582"/>
-      <c r="G17" s="582"/>
-      <c r="H17" s="582"/>
-      <c r="I17" s="582"/>
-      <c r="J17" s="583"/>
-      <c r="K17" s="583"/>
-    </row>
-    <row r="18" spans="1:11" s="585" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="572" t="s">
+      <c r="B17" s="570"/>
+      <c r="C17" s="563"/>
+      <c r="D17" s="563"/>
+      <c r="E17" s="563"/>
+      <c r="F17" s="563"/>
+      <c r="G17" s="563"/>
+      <c r="H17" s="563"/>
+      <c r="I17" s="563"/>
+      <c r="J17" s="564"/>
+      <c r="K17" s="564"/>
+    </row>
+    <row r="18" spans="1:11" s="566" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="553" t="s">
         <v>2251</v>
       </c>
-      <c r="B18" s="573" t="s">
+      <c r="B18" s="554" t="s">
         <v>2195</v>
       </c>
-      <c r="C18" s="573" t="s">
+      <c r="C18" s="554" t="s">
         <v>2196</v>
       </c>
-      <c r="D18" s="573" t="s">
+      <c r="D18" s="554" t="s">
         <v>2197</v>
       </c>
-      <c r="E18" s="574"/>
-      <c r="F18" s="574"/>
-      <c r="G18" s="574"/>
-      <c r="H18" s="574"/>
-      <c r="I18" s="574"/>
-      <c r="J18" s="574"/>
-      <c r="K18" s="574"/>
-    </row>
-    <row r="19" spans="1:11" s="576" customFormat="1" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="572" t="s">
+      <c r="E18" s="555"/>
+      <c r="F18" s="555"/>
+      <c r="G18" s="555"/>
+      <c r="H18" s="555"/>
+      <c r="I18" s="555"/>
+      <c r="J18" s="555"/>
+      <c r="K18" s="555"/>
+    </row>
+    <row r="19" spans="1:11" s="557" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="553" t="s">
         <v>2252</v>
       </c>
-      <c r="B19" s="573" t="s">
+      <c r="B19" s="554" t="s">
         <v>2198</v>
       </c>
-      <c r="C19" s="573" t="s">
+      <c r="C19" s="554" t="s">
         <v>2196</v>
       </c>
-      <c r="D19" s="573" t="s">
+      <c r="D19" s="554" t="s">
         <v>2199</v>
       </c>
-      <c r="E19" s="574"/>
-      <c r="F19" s="574"/>
-      <c r="G19" s="574"/>
-      <c r="H19" s="574"/>
-      <c r="I19" s="574"/>
-      <c r="J19" s="574"/>
-      <c r="K19" s="574"/>
-    </row>
-    <row r="20" spans="1:11" s="585" customFormat="1" ht="188.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="572" t="s">
+      <c r="E19" s="555"/>
+      <c r="F19" s="555"/>
+      <c r="G19" s="555"/>
+      <c r="H19" s="555"/>
+      <c r="I19" s="555"/>
+      <c r="J19" s="555"/>
+      <c r="K19" s="555"/>
+    </row>
+    <row r="20" spans="1:11" s="566" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="553" t="s">
         <v>2253</v>
       </c>
-      <c r="B20" s="573" t="s">
+      <c r="B20" s="554" t="s">
         <v>2200</v>
       </c>
-      <c r="C20" s="573" t="s">
+      <c r="C20" s="554" t="s">
         <v>2196</v>
       </c>
-      <c r="D20" s="573" t="s">
+      <c r="D20" s="554" t="s">
         <v>2201</v>
       </c>
-      <c r="E20" s="574"/>
-      <c r="F20" s="574"/>
-      <c r="G20" s="574"/>
-      <c r="H20" s="574"/>
-      <c r="I20" s="574"/>
-      <c r="J20" s="574"/>
-      <c r="K20" s="574"/>
-    </row>
-    <row r="21" spans="1:11" s="134" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="555"/>
+      <c r="F20" s="555"/>
+      <c r="G20" s="555"/>
+      <c r="H20" s="555"/>
+      <c r="I20" s="555"/>
+      <c r="J20" s="555"/>
+      <c r="K20" s="555"/>
+    </row>
+    <row r="21" spans="1:11" s="134" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="134" t="s">
         <v>2202</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="576" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="572" t="s">
+    <row r="22" spans="1:11" s="557" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="553" t="s">
         <v>2254</v>
       </c>
-      <c r="B22" s="573" t="s">
+      <c r="B22" s="554" t="s">
         <v>2203</v>
       </c>
-      <c r="C22" s="573" t="s">
+      <c r="C22" s="554" t="s">
         <v>2196</v>
       </c>
-      <c r="D22" s="573" t="s">
+      <c r="D22" s="554" t="s">
         <v>2204</v>
       </c>
-      <c r="E22" s="574"/>
-      <c r="F22" s="574"/>
-      <c r="G22" s="574"/>
-      <c r="H22" s="574"/>
-      <c r="I22" s="574"/>
-      <c r="J22" s="574"/>
-      <c r="K22" s="574"/>
-    </row>
-    <row r="23" spans="1:11" s="576" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="572" t="s">
+      <c r="E22" s="555"/>
+      <c r="F22" s="555"/>
+      <c r="G22" s="555"/>
+      <c r="H22" s="555"/>
+      <c r="I22" s="555"/>
+      <c r="J22" s="555"/>
+      <c r="K22" s="555"/>
+    </row>
+    <row r="23" spans="1:11" s="557" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="553" t="s">
         <v>2255</v>
       </c>
-      <c r="B23" s="573" t="s">
+      <c r="B23" s="554" t="s">
         <v>2205</v>
       </c>
-      <c r="C23" s="573" t="s">
+      <c r="C23" s="554" t="s">
         <v>2196</v>
       </c>
-      <c r="D23" s="573" t="s">
+      <c r="D23" s="554" t="s">
         <v>2206</v>
       </c>
     </row>
@@ -58269,25 +58249,25 @@
       <c r="B5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="624" t="s">
+      <c r="C5" s="579" t="s">
         <v>184</v>
       </c>
-      <c r="D5" s="625"/>
-      <c r="E5" s="626"/>
+      <c r="D5" s="580"/>
+      <c r="E5" s="581"/>
       <c r="F5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="622"/>
-      <c r="I5" s="622"/>
-      <c r="J5" s="622"/>
+      <c r="H5" s="571"/>
+      <c r="I5" s="571"/>
+      <c r="J5" s="571"/>
     </row>
     <row r="6" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="598"/>
-      <c r="D6" s="599"/>
-      <c r="E6" s="600"/>
+      <c r="C6" s="601"/>
+      <c r="D6" s="602"/>
+      <c r="E6" s="603"/>
       <c r="F6" s="7"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -58297,23 +58277,23 @@
       <c r="B7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="627"/>
-      <c r="D7" s="628"/>
-      <c r="E7" s="629"/>
+      <c r="C7" s="582"/>
+      <c r="D7" s="583"/>
+      <c r="E7" s="584"/>
       <c r="F7" s="7"/>
-      <c r="H7" s="622"/>
-      <c r="I7" s="622"/>
-      <c r="J7" s="622"/>
+      <c r="H7" s="571"/>
+      <c r="I7" s="571"/>
+      <c r="J7" s="571"/>
     </row>
     <row r="8" spans="2:10" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="630" t="s">
+      <c r="C8" s="585" t="s">
         <v>187</v>
       </c>
-      <c r="D8" s="631"/>
-      <c r="E8" s="632"/>
+      <c r="D8" s="586"/>
+      <c r="E8" s="587"/>
       <c r="F8" s="7"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -58336,58 +58316,58 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B11" s="616" t="s">
+      <c r="B11" s="572" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="617"/>
-      <c r="D11" s="623"/>
-      <c r="E11" s="623"/>
-      <c r="F11" s="618"/>
+      <c r="C11" s="573"/>
+      <c r="D11" s="574"/>
+      <c r="E11" s="574"/>
+      <c r="F11" s="575"/>
     </row>
     <row r="12" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="609"/>
-      <c r="D12" s="611"/>
-      <c r="E12" s="611"/>
-      <c r="F12" s="612"/>
+      <c r="C12" s="576"/>
+      <c r="D12" s="577"/>
+      <c r="E12" s="577"/>
+      <c r="F12" s="578"/>
     </row>
     <row r="13" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="609"/>
-      <c r="D13" s="611"/>
-      <c r="E13" s="611"/>
-      <c r="F13" s="612"/>
+      <c r="C13" s="576"/>
+      <c r="D13" s="577"/>
+      <c r="E13" s="577"/>
+      <c r="F13" s="578"/>
     </row>
     <row r="14" spans="2:10" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="609"/>
-      <c r="D14" s="611"/>
-      <c r="E14" s="611"/>
-      <c r="F14" s="612"/>
+      <c r="C14" s="576"/>
+      <c r="D14" s="577"/>
+      <c r="E14" s="577"/>
+      <c r="F14" s="578"/>
     </row>
     <row r="15" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="609"/>
-      <c r="D15" s="611"/>
-      <c r="E15" s="611"/>
-      <c r="F15" s="612"/>
+      <c r="C15" s="576"/>
+      <c r="D15" s="577"/>
+      <c r="E15" s="577"/>
+      <c r="F15" s="578"/>
     </row>
     <row r="16" spans="2:10" s="8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="613"/>
-      <c r="D16" s="614"/>
-      <c r="E16" s="614"/>
-      <c r="F16" s="615"/>
+      <c r="C16" s="612"/>
+      <c r="D16" s="613"/>
+      <c r="E16" s="613"/>
+      <c r="F16" s="614"/>
     </row>
     <row r="17" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
@@ -58397,13 +58377,13 @@
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B18" s="616" t="s">
+      <c r="B18" s="572" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="617"/>
-      <c r="D18" s="617"/>
-      <c r="E18" s="617"/>
-      <c r="F18" s="618"/>
+      <c r="C18" s="573"/>
+      <c r="D18" s="573"/>
+      <c r="E18" s="573"/>
+      <c r="F18" s="575"/>
     </row>
     <row r="19" spans="2:6" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B19" s="13" t="s">
@@ -58415,10 +58395,10 @@
       <c r="D19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="604" t="s">
+      <c r="E19" s="607" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="619"/>
+      <c r="F19" s="615"/>
     </row>
     <row r="20" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B20" s="16" t="s">
@@ -58430,10 +58410,10 @@
       <c r="D20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="609" t="s">
+      <c r="E20" s="576" t="s">
         <v>189</v>
       </c>
-      <c r="F20" s="610"/>
+      <c r="F20" s="588"/>
     </row>
     <row r="21" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B21" s="16" t="s">
@@ -58443,66 +58423,66 @@
         <v>238</v>
       </c>
       <c r="D21" s="19"/>
-      <c r="E21" s="609" t="s">
+      <c r="E21" s="576" t="s">
         <v>239</v>
       </c>
-      <c r="F21" s="610"/>
+      <c r="F21" s="588"/>
     </row>
     <row r="22" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B22" s="16"/>
       <c r="C22" s="17"/>
       <c r="D22" s="19"/>
-      <c r="E22" s="609"/>
-      <c r="F22" s="610"/>
+      <c r="E22" s="576"/>
+      <c r="F22" s="588"/>
     </row>
     <row r="23" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B23" s="16"/>
       <c r="C23" s="17"/>
       <c r="D23" s="19"/>
-      <c r="E23" s="609"/>
-      <c r="F23" s="610"/>
+      <c r="E23" s="576"/>
+      <c r="F23" s="588"/>
     </row>
     <row r="24" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B24" s="16"/>
       <c r="C24" s="17"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="609"/>
-      <c r="F24" s="610"/>
+      <c r="E24" s="576"/>
+      <c r="F24" s="588"/>
     </row>
     <row r="25" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
       <c r="D25" s="19"/>
-      <c r="E25" s="609"/>
-      <c r="F25" s="610"/>
+      <c r="E25" s="576"/>
+      <c r="F25" s="588"/>
     </row>
     <row r="26" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B26" s="16"/>
       <c r="C26" s="17"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="609"/>
-      <c r="F26" s="610"/>
+      <c r="E26" s="576"/>
+      <c r="F26" s="588"/>
     </row>
     <row r="27" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B27" s="16"/>
       <c r="C27" s="17"/>
       <c r="D27" s="19"/>
-      <c r="E27" s="609"/>
-      <c r="F27" s="610"/>
+      <c r="E27" s="576"/>
+      <c r="F27" s="588"/>
     </row>
     <row r="28" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B28" s="16"/>
       <c r="C28" s="20"/>
       <c r="D28" s="19"/>
-      <c r="E28" s="609"/>
-      <c r="F28" s="610"/>
+      <c r="E28" s="576"/>
+      <c r="F28" s="588"/>
     </row>
     <row r="29" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
       <c r="D29" s="23"/>
-      <c r="E29" s="620"/>
-      <c r="F29" s="621"/>
+      <c r="E29" s="589"/>
+      <c r="F29" s="590"/>
     </row>
     <row r="30" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
@@ -58512,67 +58492,67 @@
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B31" s="601" t="s">
+      <c r="B31" s="604" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="602"/>
-      <c r="D31" s="602"/>
-      <c r="E31" s="603"/>
+      <c r="C31" s="605"/>
+      <c r="D31" s="605"/>
+      <c r="E31" s="606"/>
       <c r="F31" s="24"/>
     </row>
     <row r="32" spans="2:6" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B32" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="604" t="s">
+      <c r="C32" s="607" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="605"/>
-      <c r="E32" s="605"/>
+      <c r="D32" s="608"/>
+      <c r="E32" s="608"/>
       <c r="F32" s="25" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B33" s="16"/>
-      <c r="C33" s="590"/>
-      <c r="D33" s="591"/>
-      <c r="E33" s="591"/>
+      <c r="C33" s="593"/>
+      <c r="D33" s="594"/>
+      <c r="E33" s="594"/>
       <c r="F33" s="26"/>
     </row>
     <row r="34" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B34" s="16"/>
-      <c r="C34" s="606"/>
-      <c r="D34" s="607"/>
-      <c r="E34" s="608"/>
+      <c r="C34" s="609"/>
+      <c r="D34" s="610"/>
+      <c r="E34" s="611"/>
       <c r="F34" s="26"/>
     </row>
     <row r="35" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B35" s="27"/>
-      <c r="C35" s="588"/>
-      <c r="D35" s="589"/>
-      <c r="E35" s="589"/>
+      <c r="C35" s="591"/>
+      <c r="D35" s="592"/>
+      <c r="E35" s="592"/>
       <c r="F35" s="28"/>
     </row>
     <row r="36" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B36" s="27"/>
-      <c r="C36" s="590"/>
-      <c r="D36" s="591"/>
-      <c r="E36" s="591"/>
+      <c r="C36" s="593"/>
+      <c r="D36" s="594"/>
+      <c r="E36" s="594"/>
       <c r="F36" s="26"/>
     </row>
     <row r="37" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B37" s="27"/>
-      <c r="C37" s="592"/>
-      <c r="D37" s="593"/>
-      <c r="E37" s="594"/>
+      <c r="C37" s="595"/>
+      <c r="D37" s="596"/>
+      <c r="E37" s="597"/>
       <c r="F37" s="28"/>
     </row>
     <row r="38" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="21"/>
-      <c r="C38" s="595"/>
-      <c r="D38" s="596"/>
-      <c r="E38" s="597"/>
+      <c r="C38" s="598"/>
+      <c r="D38" s="599"/>
+      <c r="E38" s="600"/>
       <c r="F38" s="29"/>
     </row>
     <row r="39" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -58598,22 +58578,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="C37:E37"/>
@@ -58630,6 +58594,22 @@
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -58666,10 +58646,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="669" t="s">
+      <c r="A1" s="616" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="669"/>
+      <c r="B1" s="616"/>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
       <c r="E1" s="38"/>
@@ -58704,250 +58684,250 @@
       <c r="AH1" s="38"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="670" t="s">
+      <c r="A2" s="617" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="670" t="s">
+      <c r="B2" s="617" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="670" t="s">
+      <c r="C2" s="617" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="673" t="s">
+      <c r="D2" s="620" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="673"/>
-      <c r="F2" s="673"/>
-      <c r="G2" s="639" t="s">
+      <c r="E2" s="620"/>
+      <c r="F2" s="620"/>
+      <c r="G2" s="629" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="640"/>
-      <c r="I2" s="640"/>
-      <c r="J2" s="645"/>
-      <c r="K2" s="633" t="s">
+      <c r="H2" s="630"/>
+      <c r="I2" s="630"/>
+      <c r="J2" s="631"/>
+      <c r="K2" s="647" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="633"/>
-      <c r="M2" s="639" t="s">
+      <c r="L2" s="647"/>
+      <c r="M2" s="629" t="s">
         <v>67</v>
       </c>
-      <c r="N2" s="640"/>
-      <c r="O2" s="645"/>
-      <c r="P2" s="639" t="s">
+      <c r="N2" s="630"/>
+      <c r="O2" s="631"/>
+      <c r="P2" s="629" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="645"/>
-      <c r="R2" s="639" t="s">
+      <c r="Q2" s="631"/>
+      <c r="R2" s="629" t="s">
         <v>63</v>
       </c>
-      <c r="S2" s="640"/>
-      <c r="T2" s="639" t="s">
+      <c r="S2" s="630"/>
+      <c r="T2" s="629" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="640"/>
-      <c r="V2" s="640"/>
-      <c r="W2" s="640"/>
-      <c r="X2" s="645"/>
-      <c r="Y2" s="639" t="s">
+      <c r="U2" s="630"/>
+      <c r="V2" s="630"/>
+      <c r="W2" s="630"/>
+      <c r="X2" s="631"/>
+      <c r="Y2" s="629" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" s="640"/>
-      <c r="AA2" s="640"/>
-      <c r="AB2" s="645"/>
-      <c r="AC2" s="654" t="s">
+      <c r="Z2" s="630"/>
+      <c r="AA2" s="630"/>
+      <c r="AB2" s="631"/>
+      <c r="AC2" s="623" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" s="655"/>
-      <c r="AE2" s="655"/>
-      <c r="AF2" s="664"/>
-      <c r="AG2" s="654" t="s">
+      <c r="AD2" s="624"/>
+      <c r="AE2" s="624"/>
+      <c r="AF2" s="639"/>
+      <c r="AG2" s="623" t="s">
         <v>29</v>
       </c>
-      <c r="AH2" s="655"/>
-      <c r="AI2" s="655"/>
+      <c r="AH2" s="624"/>
+      <c r="AI2" s="624"/>
     </row>
     <row r="3" spans="1:35" s="43" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="671"/>
-      <c r="B3" s="671"/>
-      <c r="C3" s="671"/>
-      <c r="D3" s="673"/>
-      <c r="E3" s="673"/>
-      <c r="F3" s="673"/>
-      <c r="G3" s="641"/>
-      <c r="H3" s="642"/>
-      <c r="I3" s="642"/>
-      <c r="J3" s="646"/>
-      <c r="K3" s="633" t="s">
+      <c r="A3" s="618"/>
+      <c r="B3" s="618"/>
+      <c r="C3" s="618"/>
+      <c r="D3" s="620"/>
+      <c r="E3" s="620"/>
+      <c r="F3" s="620"/>
+      <c r="G3" s="625"/>
+      <c r="H3" s="626"/>
+      <c r="I3" s="626"/>
+      <c r="J3" s="632"/>
+      <c r="K3" s="647" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="633"/>
-      <c r="M3" s="641"/>
-      <c r="N3" s="642"/>
-      <c r="O3" s="646"/>
-      <c r="P3" s="641"/>
-      <c r="Q3" s="646"/>
-      <c r="R3" s="641"/>
-      <c r="S3" s="642"/>
-      <c r="T3" s="641"/>
-      <c r="U3" s="642"/>
-      <c r="V3" s="642"/>
-      <c r="W3" s="642"/>
-      <c r="X3" s="646"/>
-      <c r="Y3" s="641"/>
-      <c r="Z3" s="642"/>
-      <c r="AA3" s="642"/>
-      <c r="AB3" s="646"/>
-      <c r="AC3" s="641"/>
-      <c r="AD3" s="642"/>
-      <c r="AE3" s="642"/>
-      <c r="AF3" s="646"/>
-      <c r="AG3" s="641"/>
-      <c r="AH3" s="642"/>
-      <c r="AI3" s="642"/>
+      <c r="L3" s="647"/>
+      <c r="M3" s="625"/>
+      <c r="N3" s="626"/>
+      <c r="O3" s="632"/>
+      <c r="P3" s="625"/>
+      <c r="Q3" s="632"/>
+      <c r="R3" s="625"/>
+      <c r="S3" s="626"/>
+      <c r="T3" s="625"/>
+      <c r="U3" s="626"/>
+      <c r="V3" s="626"/>
+      <c r="W3" s="626"/>
+      <c r="X3" s="632"/>
+      <c r="Y3" s="625"/>
+      <c r="Z3" s="626"/>
+      <c r="AA3" s="626"/>
+      <c r="AB3" s="632"/>
+      <c r="AC3" s="625"/>
+      <c r="AD3" s="626"/>
+      <c r="AE3" s="626"/>
+      <c r="AF3" s="632"/>
+      <c r="AG3" s="625"/>
+      <c r="AH3" s="626"/>
+      <c r="AI3" s="626"/>
     </row>
     <row r="4" spans="1:35" s="44" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="671"/>
-      <c r="B4" s="671"/>
-      <c r="C4" s="671"/>
-      <c r="D4" s="652" t="s">
+      <c r="A4" s="618"/>
+      <c r="B4" s="618"/>
+      <c r="C4" s="618"/>
+      <c r="D4" s="621" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="652" t="s">
+      <c r="E4" s="621" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="652" t="s">
+      <c r="F4" s="621" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="650" t="s">
+      <c r="G4" s="645" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="650" t="s">
+      <c r="H4" s="645" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="650" t="s">
+      <c r="I4" s="645" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="650" t="s">
+      <c r="J4" s="645" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="634" t="s">
+      <c r="K4" s="648" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="634" t="s">
+      <c r="L4" s="648" t="s">
         <v>72</v>
       </c>
-      <c r="M4" s="636" t="s">
+      <c r="M4" s="650" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="636" t="s">
+      <c r="N4" s="650" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="647" t="s">
+      <c r="O4" s="654" t="s">
         <v>70</v>
       </c>
-      <c r="P4" s="648" t="s">
+      <c r="P4" s="655" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="648" t="s">
+      <c r="Q4" s="655" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="643" t="s">
+      <c r="R4" s="652" t="s">
         <v>64</v>
       </c>
-      <c r="S4" s="643" t="s">
+      <c r="S4" s="652" t="s">
         <v>65</v>
       </c>
-      <c r="T4" s="656" t="s">
+      <c r="T4" s="627" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="667" t="s">
+      <c r="U4" s="643" t="s">
         <v>32</v>
       </c>
-      <c r="V4" s="668"/>
-      <c r="W4" s="638" t="s">
+      <c r="V4" s="644"/>
+      <c r="W4" s="642" t="s">
         <v>31</v>
       </c>
-      <c r="X4" s="638" t="s">
+      <c r="X4" s="642" t="s">
         <v>44</v>
       </c>
-      <c r="Y4" s="658" t="s">
+      <c r="Y4" s="633" t="s">
         <v>30</v>
       </c>
-      <c r="Z4" s="658" t="s">
+      <c r="Z4" s="633" t="s">
         <v>50</v>
       </c>
-      <c r="AA4" s="662" t="s">
+      <c r="AA4" s="637" t="s">
         <v>51</v>
       </c>
-      <c r="AB4" s="663"/>
-      <c r="AC4" s="660" t="s">
+      <c r="AB4" s="638"/>
+      <c r="AC4" s="635" t="s">
         <v>30</v>
       </c>
-      <c r="AD4" s="660" t="s">
+      <c r="AD4" s="635" t="s">
         <v>50</v>
       </c>
-      <c r="AE4" s="665" t="s">
+      <c r="AE4" s="640" t="s">
         <v>51</v>
       </c>
-      <c r="AF4" s="666"/>
-      <c r="AG4" s="652" t="s">
+      <c r="AF4" s="641"/>
+      <c r="AG4" s="621" t="s">
         <v>34</v>
       </c>
-      <c r="AH4" s="652" t="s">
+      <c r="AH4" s="621" t="s">
         <v>35</v>
       </c>
-      <c r="AI4" s="652" t="s">
+      <c r="AI4" s="621" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:35" s="45" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="672"/>
-      <c r="B5" s="672"/>
-      <c r="C5" s="672"/>
-      <c r="D5" s="653"/>
-      <c r="E5" s="653"/>
-      <c r="F5" s="653"/>
-      <c r="G5" s="651"/>
-      <c r="H5" s="651"/>
-      <c r="I5" s="651"/>
-      <c r="J5" s="651"/>
-      <c r="K5" s="635"/>
-      <c r="L5" s="635"/>
-      <c r="M5" s="637"/>
-      <c r="N5" s="637"/>
-      <c r="O5" s="637"/>
-      <c r="P5" s="649"/>
-      <c r="Q5" s="649"/>
-      <c r="R5" s="644"/>
-      <c r="S5" s="644"/>
-      <c r="T5" s="657"/>
+      <c r="A5" s="619"/>
+      <c r="B5" s="619"/>
+      <c r="C5" s="619"/>
+      <c r="D5" s="622"/>
+      <c r="E5" s="622"/>
+      <c r="F5" s="622"/>
+      <c r="G5" s="646"/>
+      <c r="H5" s="646"/>
+      <c r="I5" s="646"/>
+      <c r="J5" s="646"/>
+      <c r="K5" s="649"/>
+      <c r="L5" s="649"/>
+      <c r="M5" s="651"/>
+      <c r="N5" s="651"/>
+      <c r="O5" s="651"/>
+      <c r="P5" s="656"/>
+      <c r="Q5" s="656"/>
+      <c r="R5" s="653"/>
+      <c r="S5" s="653"/>
+      <c r="T5" s="628"/>
       <c r="U5" s="60" t="s">
         <v>45</v>
       </c>
       <c r="V5" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="W5" s="638"/>
-      <c r="X5" s="638"/>
-      <c r="Y5" s="659"/>
-      <c r="Z5" s="659"/>
+      <c r="W5" s="642"/>
+      <c r="X5" s="642"/>
+      <c r="Y5" s="634"/>
+      <c r="Z5" s="634"/>
       <c r="AA5" s="52" t="s">
         <v>52</v>
       </c>
       <c r="AB5" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="AC5" s="661"/>
-      <c r="AD5" s="661"/>
+      <c r="AC5" s="636"/>
+      <c r="AD5" s="636"/>
       <c r="AE5" s="53" t="s">
         <v>52</v>
       </c>
       <c r="AF5" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="AG5" s="653"/>
-      <c r="AH5" s="653"/>
-      <c r="AI5" s="653"/>
+      <c r="AG5" s="622"/>
+      <c r="AH5" s="622"/>
+      <c r="AI5" s="622"/>
     </row>
     <row r="6" spans="1:35" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="47"/>
@@ -59210,14 +59190,26 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:F3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="R2:S3"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="M2:O3"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P2:Q3"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="G2:J3"/>
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="AI4:AI5"/>
     <mergeCell ref="AG2:AI3"/>
     <mergeCell ref="T4:T5"/>
@@ -59234,26 +59226,14 @@
     <mergeCell ref="AE4:AF4"/>
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="U4:V4"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="G2:J3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="R2:S3"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="M2:O3"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P2:Q3"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -59306,7 +59286,7 @@
     </row>
     <row r="2" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="64"/>
-      <c r="B2" s="675" t="s">
+      <c r="B2" s="661" t="s">
         <v>138</v>
       </c>
       <c r="C2" s="72" t="s">
@@ -59319,7 +59299,7 @@
     </row>
     <row r="3" spans="1:8" s="65" customFormat="1" ht="52.5" x14ac:dyDescent="0.2">
       <c r="A3" s="64"/>
-      <c r="B3" s="676"/>
+      <c r="B3" s="662"/>
       <c r="C3" s="72" t="s">
         <v>145</v>
       </c>
@@ -59330,7 +59310,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="66"/>
-      <c r="B4" s="677" t="s">
+      <c r="B4" s="657" t="s">
         <v>85</v>
       </c>
       <c r="C4" s="71" t="s">
@@ -59343,7 +59323,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="66"/>
-      <c r="B5" s="678"/>
+      <c r="B5" s="658"/>
       <c r="C5" s="71" t="s">
         <v>141</v>
       </c>
@@ -59354,7 +59334,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="66"/>
-      <c r="B6" s="678"/>
+      <c r="B6" s="658"/>
       <c r="C6" s="71" t="s">
         <v>140</v>
       </c>
@@ -59365,7 +59345,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="66"/>
-      <c r="B7" s="678"/>
+      <c r="B7" s="658"/>
       <c r="C7" s="71" t="s">
         <v>142</v>
       </c>
@@ -59376,7 +59356,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="66"/>
-      <c r="B8" s="679"/>
+      <c r="B8" s="659"/>
       <c r="C8" s="71" t="s">
         <v>146</v>
       </c>
@@ -59387,7 +59367,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="66"/>
-      <c r="B9" s="677" t="s">
+      <c r="B9" s="657" t="s">
         <v>86</v>
       </c>
       <c r="C9" s="67" t="s">
@@ -59400,8 +59380,8 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="66"/>
-      <c r="B10" s="678"/>
-      <c r="C10" s="677" t="s">
+      <c r="B10" s="658"/>
+      <c r="C10" s="657" t="s">
         <v>147</v>
       </c>
       <c r="D10" s="70" t="s">
@@ -59413,8 +59393,8 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="66"/>
-      <c r="B11" s="678"/>
-      <c r="C11" s="679"/>
+      <c r="B11" s="658"/>
+      <c r="C11" s="659"/>
       <c r="D11" s="70" t="s">
         <v>149</v>
       </c>
@@ -59424,8 +59404,8 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="66"/>
-      <c r="B12" s="678"/>
-      <c r="C12" s="677" t="s">
+      <c r="B12" s="658"/>
+      <c r="C12" s="657" t="s">
         <v>91</v>
       </c>
       <c r="D12" s="70" t="s">
@@ -59439,9 +59419,9 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="66"/>
-      <c r="B13" s="678"/>
-      <c r="C13" s="678"/>
-      <c r="D13" s="677" t="s">
+      <c r="B13" s="658"/>
+      <c r="C13" s="658"/>
+      <c r="D13" s="657" t="s">
         <v>116</v>
       </c>
       <c r="E13" s="66" t="s">
@@ -59452,9 +59432,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="66"/>
-      <c r="B14" s="678"/>
-      <c r="C14" s="678"/>
-      <c r="D14" s="678"/>
+      <c r="B14" s="658"/>
+      <c r="C14" s="658"/>
+      <c r="D14" s="658"/>
       <c r="E14" s="66" t="s">
         <v>120</v>
       </c>
@@ -59463,9 +59443,9 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="66"/>
-      <c r="B15" s="678"/>
-      <c r="C15" s="678"/>
-      <c r="D15" s="678"/>
+      <c r="B15" s="658"/>
+      <c r="C15" s="658"/>
+      <c r="D15" s="658"/>
       <c r="E15" s="66" t="s">
         <v>121</v>
       </c>
@@ -59474,9 +59454,9 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="66"/>
-      <c r="B16" s="678"/>
-      <c r="C16" s="678"/>
-      <c r="D16" s="678"/>
+      <c r="B16" s="658"/>
+      <c r="C16" s="658"/>
+      <c r="D16" s="658"/>
       <c r="E16" s="66" t="s">
         <v>122</v>
       </c>
@@ -59485,9 +59465,9 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="66"/>
-      <c r="B17" s="678"/>
-      <c r="C17" s="678"/>
-      <c r="D17" s="679"/>
+      <c r="B17" s="658"/>
+      <c r="C17" s="658"/>
+      <c r="D17" s="659"/>
       <c r="E17" s="66" t="s">
         <v>123</v>
       </c>
@@ -59496,8 +59476,8 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="66"/>
-      <c r="B18" s="678"/>
-      <c r="C18" s="678"/>
+      <c r="B18" s="658"/>
+      <c r="C18" s="658"/>
       <c r="D18" s="70" t="s">
         <v>117</v>
       </c>
@@ -59509,9 +59489,9 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="66"/>
-      <c r="B19" s="678"/>
-      <c r="C19" s="678"/>
-      <c r="D19" s="677" t="s">
+      <c r="B19" s="658"/>
+      <c r="C19" s="658"/>
+      <c r="D19" s="657" t="s">
         <v>118</v>
       </c>
       <c r="E19" s="66" t="s">
@@ -59522,9 +59502,9 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="66"/>
-      <c r="B20" s="678"/>
-      <c r="C20" s="679"/>
-      <c r="D20" s="679"/>
+      <c r="B20" s="658"/>
+      <c r="C20" s="659"/>
+      <c r="D20" s="659"/>
       <c r="E20" s="66" t="s">
         <v>123</v>
       </c>
@@ -59533,11 +59513,11 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="66"/>
-      <c r="B21" s="678"/>
-      <c r="C21" s="677" t="s">
+      <c r="B21" s="658"/>
+      <c r="C21" s="657" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="677" t="s">
+      <c r="D21" s="657" t="s">
         <v>118</v>
       </c>
       <c r="E21" s="66" t="s">
@@ -59548,9 +59528,9 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="66"/>
-      <c r="B22" s="678"/>
-      <c r="C22" s="678"/>
-      <c r="D22" s="679"/>
+      <c r="B22" s="658"/>
+      <c r="C22" s="658"/>
+      <c r="D22" s="659"/>
       <c r="E22" s="66" t="s">
         <v>128</v>
       </c>
@@ -59559,9 +59539,9 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="66"/>
-      <c r="B23" s="678"/>
-      <c r="C23" s="678"/>
-      <c r="D23" s="677" t="s">
+      <c r="B23" s="658"/>
+      <c r="C23" s="658"/>
+      <c r="D23" s="657" t="s">
         <v>117</v>
       </c>
       <c r="E23" s="66" t="s">
@@ -59572,9 +59552,9 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="66"/>
-      <c r="B24" s="678"/>
-      <c r="C24" s="678"/>
-      <c r="D24" s="678"/>
+      <c r="B24" s="658"/>
+      <c r="C24" s="658"/>
+      <c r="D24" s="658"/>
       <c r="E24" s="66" t="s">
         <v>130</v>
       </c>
@@ -59583,9 +59563,9 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="66"/>
-      <c r="B25" s="678"/>
-      <c r="C25" s="678"/>
-      <c r="D25" s="679"/>
+      <c r="B25" s="658"/>
+      <c r="C25" s="658"/>
+      <c r="D25" s="659"/>
       <c r="E25" s="66" t="s">
         <v>131</v>
       </c>
@@ -59594,8 +59574,8 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="66"/>
-      <c r="B26" s="678"/>
-      <c r="C26" s="679"/>
+      <c r="B26" s="658"/>
+      <c r="C26" s="659"/>
       <c r="D26" s="70" t="s">
         <v>116</v>
       </c>
@@ -59607,8 +59587,8 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="66"/>
-      <c r="B27" s="678"/>
-      <c r="C27" s="677" t="s">
+      <c r="B27" s="658"/>
+      <c r="C27" s="657" t="s">
         <v>93</v>
       </c>
       <c r="D27" s="70" t="s">
@@ -59623,8 +59603,8 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="66"/>
-      <c r="B28" s="678"/>
-      <c r="C28" s="678"/>
+      <c r="B28" s="658"/>
+      <c r="C28" s="658"/>
       <c r="D28" s="70" t="s">
         <v>134</v>
       </c>
@@ -59637,8 +59617,8 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="66"/>
-      <c r="B29" s="678"/>
-      <c r="C29" s="679"/>
+      <c r="B29" s="658"/>
+      <c r="C29" s="659"/>
       <c r="D29" s="70" t="s">
         <v>135</v>
       </c>
@@ -59651,7 +59631,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="66"/>
-      <c r="B30" s="678"/>
+      <c r="B30" s="658"/>
       <c r="C30" s="70" t="s">
         <v>74</v>
       </c>
@@ -59662,7 +59642,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="66"/>
-      <c r="B31" s="678"/>
+      <c r="B31" s="658"/>
       <c r="C31" s="67" t="s">
         <v>95</v>
       </c>
@@ -59673,7 +59653,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="66"/>
-      <c r="B32" s="678"/>
+      <c r="B32" s="658"/>
       <c r="C32" s="70" t="s">
         <v>96</v>
       </c>
@@ -59684,8 +59664,8 @@
     </row>
     <row r="33" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A33" s="66"/>
-      <c r="B33" s="678"/>
-      <c r="C33" s="677" t="s">
+      <c r="B33" s="658"/>
+      <c r="C33" s="657" t="s">
         <v>97</v>
       </c>
       <c r="D33" s="70" t="s">
@@ -59697,8 +59677,8 @@
     </row>
     <row r="34" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A34" s="66"/>
-      <c r="B34" s="678"/>
-      <c r="C34" s="679"/>
+      <c r="B34" s="658"/>
+      <c r="C34" s="659"/>
       <c r="D34" s="70" t="s">
         <v>152</v>
       </c>
@@ -59708,7 +59688,7 @@
     </row>
     <row r="35" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A35" s="66"/>
-      <c r="B35" s="679"/>
+      <c r="B35" s="659"/>
       <c r="C35" s="70" t="s">
         <v>98</v>
       </c>
@@ -59722,7 +59702,7 @@
     </row>
     <row r="36" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A36" s="66"/>
-      <c r="B36" s="677" t="s">
+      <c r="B36" s="657" t="s">
         <v>87</v>
       </c>
       <c r="C36" s="67" t="s">
@@ -59735,7 +59715,7 @@
     </row>
     <row r="37" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A37" s="66"/>
-      <c r="B37" s="678"/>
+      <c r="B37" s="658"/>
       <c r="C37" s="70" t="s">
         <v>99</v>
       </c>
@@ -59746,7 +59726,7 @@
     </row>
     <row r="38" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A38" s="66"/>
-      <c r="B38" s="678"/>
+      <c r="B38" s="658"/>
       <c r="C38" s="70" t="s">
         <v>100</v>
       </c>
@@ -59757,7 +59737,7 @@
     </row>
     <row r="39" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A39" s="66"/>
-      <c r="B39" s="679"/>
+      <c r="B39" s="659"/>
       <c r="C39" s="70" t="s">
         <v>101</v>
       </c>
@@ -59771,7 +59751,7 @@
     </row>
     <row r="40" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A40" s="66"/>
-      <c r="B40" s="677" t="s">
+      <c r="B40" s="657" t="s">
         <v>88</v>
       </c>
       <c r="C40" s="67" t="s">
@@ -59784,8 +59764,8 @@
     </row>
     <row r="41" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A41" s="66"/>
-      <c r="B41" s="678"/>
-      <c r="C41" s="677" t="s">
+      <c r="B41" s="658"/>
+      <c r="C41" s="657" t="s">
         <v>102</v>
       </c>
       <c r="D41" s="70" t="s">
@@ -59797,8 +59777,8 @@
     </row>
     <row r="42" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A42" s="66"/>
-      <c r="B42" s="678"/>
-      <c r="C42" s="679"/>
+      <c r="B42" s="658"/>
+      <c r="C42" s="659"/>
       <c r="D42" s="70" t="s">
         <v>136</v>
       </c>
@@ -59808,7 +59788,7 @@
     </row>
     <row r="43" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A43" s="66"/>
-      <c r="B43" s="679"/>
+      <c r="B43" s="659"/>
       <c r="C43" s="70" t="s">
         <v>103</v>
       </c>
@@ -59819,7 +59799,7 @@
     </row>
     <row r="44" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A44" s="66"/>
-      <c r="B44" s="677" t="s">
+      <c r="B44" s="657" t="s">
         <v>89</v>
       </c>
       <c r="C44" s="67" t="s">
@@ -59833,7 +59813,7 @@
     </row>
     <row r="45" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A45" s="66"/>
-      <c r="B45" s="678"/>
+      <c r="B45" s="658"/>
       <c r="C45" s="70" t="s">
         <v>104</v>
       </c>
@@ -59844,7 +59824,7 @@
     </row>
     <row r="46" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A46" s="66"/>
-      <c r="B46" s="678"/>
+      <c r="B46" s="658"/>
       <c r="C46" s="70" t="s">
         <v>105</v>
       </c>
@@ -59855,7 +59835,7 @@
     </row>
     <row r="47" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A47" s="66"/>
-      <c r="B47" s="678"/>
+      <c r="B47" s="658"/>
       <c r="C47" s="70" t="s">
         <v>106</v>
       </c>
@@ -59866,7 +59846,7 @@
     </row>
     <row r="48" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A48" s="66"/>
-      <c r="B48" s="679"/>
+      <c r="B48" s="659"/>
       <c r="C48" s="70" t="s">
         <v>107</v>
       </c>
@@ -59924,10 +59904,10 @@
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="66"/>
       <c r="B53" s="73"/>
-      <c r="C53" s="677" t="s">
+      <c r="C53" s="657" t="s">
         <v>159</v>
       </c>
-      <c r="D53" s="677" t="s">
+      <c r="D53" s="657" t="s">
         <v>165</v>
       </c>
       <c r="E53" s="66" t="s">
@@ -59939,8 +59919,8 @@
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="66"/>
       <c r="B54" s="73"/>
-      <c r="C54" s="678"/>
-      <c r="D54" s="678"/>
+      <c r="C54" s="658"/>
+      <c r="D54" s="658"/>
       <c r="E54" s="66" t="s">
         <v>169</v>
       </c>
@@ -59950,8 +59930,8 @@
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="66"/>
       <c r="B55" s="73"/>
-      <c r="C55" s="678"/>
-      <c r="D55" s="679"/>
+      <c r="C55" s="658"/>
+      <c r="D55" s="659"/>
       <c r="E55" s="66" t="s">
         <v>170</v>
       </c>
@@ -59961,11 +59941,11 @@
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="66"/>
       <c r="B56" s="73"/>
-      <c r="C56" s="678"/>
-      <c r="D56" s="677" t="s">
+      <c r="C56" s="658"/>
+      <c r="D56" s="657" t="s">
         <v>166</v>
       </c>
-      <c r="E56" s="677" t="s">
+      <c r="E56" s="657" t="s">
         <v>171</v>
       </c>
       <c r="F56" s="66" t="s">
@@ -59976,9 +59956,9 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="66"/>
       <c r="B57" s="73"/>
-      <c r="C57" s="678"/>
-      <c r="D57" s="678"/>
-      <c r="E57" s="678"/>
+      <c r="C57" s="658"/>
+      <c r="D57" s="658"/>
+      <c r="E57" s="658"/>
       <c r="F57" s="66" t="s">
         <v>173</v>
       </c>
@@ -59987,9 +59967,9 @@
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="66"/>
       <c r="B58" s="73"/>
-      <c r="C58" s="678"/>
-      <c r="D58" s="678"/>
-      <c r="E58" s="679"/>
+      <c r="C58" s="658"/>
+      <c r="D58" s="658"/>
+      <c r="E58" s="659"/>
       <c r="F58" s="66" t="s">
         <v>170</v>
       </c>
@@ -59998,9 +59978,9 @@
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="66"/>
       <c r="B59" s="73"/>
-      <c r="C59" s="678"/>
-      <c r="D59" s="678"/>
-      <c r="E59" s="677" t="s">
+      <c r="C59" s="658"/>
+      <c r="D59" s="658"/>
+      <c r="E59" s="657" t="s">
         <v>128</v>
       </c>
       <c r="F59" s="66" t="s">
@@ -60011,9 +59991,9 @@
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="66"/>
       <c r="B60" s="73"/>
-      <c r="C60" s="678"/>
-      <c r="D60" s="679"/>
-      <c r="E60" s="679"/>
+      <c r="C60" s="658"/>
+      <c r="D60" s="659"/>
+      <c r="E60" s="659"/>
       <c r="F60" s="66" t="s">
         <v>175</v>
       </c>
@@ -60022,8 +60002,8 @@
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="66"/>
       <c r="B61" s="73"/>
-      <c r="C61" s="678"/>
-      <c r="D61" s="677" t="s">
+      <c r="C61" s="658"/>
+      <c r="D61" s="657" t="s">
         <v>167</v>
       </c>
       <c r="E61" s="66" t="s">
@@ -60035,8 +60015,8 @@
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="66"/>
       <c r="B62" s="73"/>
-      <c r="C62" s="678"/>
-      <c r="D62" s="678"/>
+      <c r="C62" s="658"/>
+      <c r="D62" s="658"/>
       <c r="E62" s="66" t="s">
         <v>177</v>
       </c>
@@ -60046,8 +60026,8 @@
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="66"/>
       <c r="B63" s="73"/>
-      <c r="C63" s="679"/>
-      <c r="D63" s="679"/>
+      <c r="C63" s="659"/>
+      <c r="D63" s="659"/>
       <c r="E63" s="66" t="s">
         <v>178</v>
       </c>
@@ -60060,7 +60040,7 @@
       <c r="C64" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="D64" s="677" t="s">
+      <c r="D64" s="657" t="s">
         <v>179</v>
       </c>
       <c r="E64" s="66" t="s">
@@ -60073,7 +60053,7 @@
       <c r="A65" s="66"/>
       <c r="B65" s="73"/>
       <c r="C65" s="70"/>
-      <c r="D65" s="679"/>
+      <c r="D65" s="659"/>
       <c r="E65" s="66" t="s">
         <v>181</v>
       </c>
@@ -60159,7 +60139,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="66"/>
-      <c r="B73" s="674" t="s">
+      <c r="B73" s="660" t="s">
         <v>76</v>
       </c>
       <c r="C73" s="67" t="s">
@@ -60172,7 +60152,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="66"/>
-      <c r="B74" s="674"/>
+      <c r="B74" s="660"/>
       <c r="C74" s="70" t="s">
         <v>109</v>
       </c>
@@ -60183,7 +60163,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="66"/>
-      <c r="B75" s="674"/>
+      <c r="B75" s="660"/>
       <c r="C75" s="70" t="s">
         <v>110</v>
       </c>
@@ -60194,7 +60174,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="66"/>
-      <c r="B76" s="674"/>
+      <c r="B76" s="660"/>
       <c r="C76" s="70" t="s">
         <v>111</v>
       </c>
@@ -60205,7 +60185,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="66"/>
-      <c r="B77" s="674"/>
+      <c r="B77" s="660"/>
       <c r="C77" s="70" t="s">
         <v>112</v>
       </c>
@@ -60216,7 +60196,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="66"/>
-      <c r="B78" s="674"/>
+      <c r="B78" s="660"/>
       <c r="C78" s="70" t="s">
         <v>113</v>
       </c>
@@ -60227,7 +60207,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="66"/>
-      <c r="B79" s="674"/>
+      <c r="B79" s="660"/>
       <c r="C79" s="70" t="s">
         <v>114</v>
       </c>
@@ -60238,7 +60218,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="66"/>
-      <c r="B80" s="674"/>
+      <c r="B80" s="660"/>
       <c r="C80" s="70" t="s">
         <v>115</v>
       </c>
@@ -60260,18 +60240,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C12:C20"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="C21:C26"/>
     <mergeCell ref="B73:B80"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C27:C29"/>
@@ -60284,6 +60252,18 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C53:C63"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C12:C20"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="D56:D60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -60860,7 +60840,7 @@
   </sheetPr>
   <dimension ref="A1:N998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A72" sqref="A72:XFD73"/>
     </sheetView>
   </sheetViews>
@@ -61688,7 +61668,7 @@
       <c r="D37" s="394" t="s">
         <v>589</v>
       </c>
-      <c r="E37" s="680" t="s">
+      <c r="E37" s="663" t="s">
         <v>590</v>
       </c>
       <c r="F37" s="397"/>
@@ -61713,7 +61693,7 @@
       <c r="D38" s="394" t="s">
         <v>591</v>
       </c>
-      <c r="E38" s="681"/>
+      <c r="E38" s="664"/>
       <c r="F38" s="397"/>
       <c r="G38" s="397"/>
       <c r="H38" s="397"/>
@@ -62476,10 +62456,10 @@
       <c r="C72" s="520" t="s">
         <v>2128</v>
       </c>
-      <c r="D72" s="703" t="s">
+      <c r="D72" s="567" t="s">
         <v>2256</v>
       </c>
-      <c r="E72" s="704"/>
+      <c r="E72" s="568"/>
       <c r="F72" s="522"/>
       <c r="G72" s="522"/>
       <c r="H72" s="522"/>
@@ -62499,10 +62479,10 @@
       <c r="C73" s="520" t="s">
         <v>2128</v>
       </c>
-      <c r="D73" s="703" t="s">
+      <c r="D73" s="567" t="s">
         <v>2257</v>
       </c>
-      <c r="E73" s="704"/>
+      <c r="E73" s="568"/>
       <c r="F73" s="522"/>
       <c r="G73" s="522"/>
       <c r="H73" s="522"/>
